--- a/Disco Disaster impossible.xlsx
+++ b/Disco Disaster impossible.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mschoi\Saved Games\Rift of the NecroDancer\Rift of the NecroDancer Demo 2\builds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3475546D-4804-4B6F-AFB4-64F3FA4CD6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCC3980D-BFBD-4B03-983A-36D5F98BCAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{850FDEFE-2B88-41F8-B673-1ACD3E3A7DA5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{EB041026-8ED2-46C3-84DC-8923CC64CCC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,13 +72,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -101,13 +101,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,11 +440,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D10E82-3E21-4B3D-879B-AC989DF931C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98FF0C1-7697-4273-8D36-0236A60FAA68}">
   <dimension ref="A1:G2840"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1277" workbookViewId="0">
-      <selection activeCell="F1285" sqref="F1285"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1089,17 +1088,17 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B526">
-        <f>SUM(A526:A609)</f>
+        <f>SUM(A526:A611)</f>
         <v>28</v>
       </c>
       <c r="C526">
-        <f>MAX(B526:B1074)</f>
+        <f>MAX(B526:B1072)</f>
         <v>34</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B527">
-        <f t="shared" ref="B527:B590" si="0">SUM(A527:A610)</f>
+        <f t="shared" ref="B527:B590" si="0">SUM(A527:A612)</f>
         <v>28</v>
       </c>
     </row>
@@ -1127,7 +1126,7 @@
     <row r="531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B531">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.35">
@@ -1136,7 +1135,7 @@
       </c>
       <c r="B532">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.35">
@@ -1181,13 +1180,13 @@
     <row r="539" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B539">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B540">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.35">
@@ -1232,7 +1231,7 @@
     <row r="547" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B547">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.35">
@@ -1241,13 +1240,13 @@
       </c>
       <c r="B548">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B549">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.35">
@@ -1256,7 +1255,7 @@
       </c>
       <c r="B550">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.35">
@@ -1265,7 +1264,7 @@
       </c>
       <c r="B551">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.35">
@@ -1274,37 +1273,37 @@
       </c>
       <c r="B552">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B553">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B554">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B555">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B556">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B557">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.35">
@@ -1313,13 +1312,13 @@
       </c>
       <c r="B558">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B559">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.35">
@@ -1328,25 +1327,25 @@
       </c>
       <c r="B560">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B561">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B562">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B563">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.35">
@@ -1355,7 +1354,7 @@
       </c>
       <c r="B564">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.35">
@@ -1376,13 +1375,13 @@
     <row r="567" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B567">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B568">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.35">
@@ -1403,13 +1402,13 @@
     <row r="571" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B571">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B572">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.35">
@@ -1427,7 +1426,7 @@
     <row r="575" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B575">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.35">
@@ -1436,7 +1435,7 @@
       </c>
       <c r="B576">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.35">
@@ -1454,7 +1453,7 @@
     <row r="579" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B579">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.35">
@@ -1463,7 +1462,7 @@
       </c>
       <c r="B580">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.35">
@@ -1484,7 +1483,7 @@
     <row r="583" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B583">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.35">
@@ -1493,7 +1492,7 @@
       </c>
       <c r="B584">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.35">
@@ -1511,13 +1510,13 @@
     <row r="587" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B587">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B588">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.35">
@@ -1534,8 +1533,8 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B591">
-        <f t="shared" ref="B591:B654" si="1">SUM(A591:A674)</f>
-        <v>23</v>
+        <f t="shared" ref="B591:B654" si="1">SUM(A591:A676)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.35">
@@ -1544,7 +1543,7 @@
       </c>
       <c r="B592">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.35">
@@ -1562,31 +1561,31 @@
     <row r="595" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B595">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B596">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B597">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B598">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B599">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.35">
@@ -1595,49 +1594,49 @@
       </c>
       <c r="B600">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B601">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B602">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B603">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B604">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B605">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B606">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B607">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.35">
@@ -1646,49 +1645,49 @@
       </c>
       <c r="B608">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B609">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B610">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B611">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B612">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B613">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B614">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B615">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.35">
@@ -1697,31 +1696,31 @@
       </c>
       <c r="B616">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B617">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B618">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B619">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B620">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.35">
@@ -1746,7 +1745,7 @@
       <c r="A624">
         <v>2</v>
       </c>
-      <c r="B624" s="3">
+      <c r="B624" s="2">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
@@ -1766,13 +1765,13 @@
     <row r="627" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B627">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B628">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.35">
@@ -1805,7 +1804,7 @@
     <row r="633" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B633">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.35">
@@ -1814,7 +1813,7 @@
       </c>
       <c r="B634">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.35">
@@ -1853,7 +1852,7 @@
       </c>
       <c r="B639">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.35">
@@ -1862,7 +1861,7 @@
       </c>
       <c r="B640">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.35">
@@ -1883,7 +1882,7 @@
     <row r="643" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B643">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.35">
@@ -1892,7 +1891,7 @@
       </c>
       <c r="B644">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.35">
@@ -1966,7 +1965,7 @@
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B655">
-        <f t="shared" ref="B655:B718" si="2">SUM(A655:A738)</f>
+        <f t="shared" ref="B655:B718" si="2">SUM(A655:A740)</f>
         <v>25</v>
       </c>
     </row>
@@ -2102,7 +2101,7 @@
     <row r="675" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B675">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.35">
@@ -2111,7 +2110,7 @@
       </c>
       <c r="B676">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.35">
@@ -2129,7 +2128,7 @@
     <row r="679" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B679">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.35">
@@ -2138,7 +2137,7 @@
       </c>
       <c r="B680">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.35">
@@ -2159,7 +2158,7 @@
     <row r="683" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B683">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.35">
@@ -2168,13 +2167,13 @@
       </c>
       <c r="B684">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B685">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.35">
@@ -2183,7 +2182,7 @@
       </c>
       <c r="B686">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.35">
@@ -2192,7 +2191,7 @@
       </c>
       <c r="B687">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.35">
@@ -2201,13 +2200,13 @@
       </c>
       <c r="B688">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B689">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.35">
@@ -2216,13 +2215,13 @@
       </c>
       <c r="B690">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B691">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.35">
@@ -2231,13 +2230,13 @@
       </c>
       <c r="B692">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B693">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.35">
@@ -2246,7 +2245,7 @@
       </c>
       <c r="B694">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.35">
@@ -2255,7 +2254,7 @@
       </c>
       <c r="B695">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.35">
@@ -2264,7 +2263,7 @@
       </c>
       <c r="B696">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.35">
@@ -2285,7 +2284,7 @@
     <row r="699" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B699">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.35">
@@ -2294,13 +2293,13 @@
       </c>
       <c r="B700">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B701">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.35">
@@ -2309,7 +2308,7 @@
       </c>
       <c r="B702">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.35">
@@ -2342,13 +2341,13 @@
     <row r="707" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B707">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B708">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.35">
@@ -2393,13 +2392,13 @@
     <row r="715" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B715">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B716">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.35">
@@ -2419,7 +2418,7 @@
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B719">
-        <f t="shared" ref="B719:B782" si="3">SUM(A719:A802)</f>
+        <f t="shared" ref="B719:B782" si="3">SUM(A719:A804)</f>
         <v>15</v>
       </c>
     </row>
@@ -2444,7 +2443,7 @@
     <row r="723" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B723">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.35">
@@ -2453,7 +2452,7 @@
       </c>
       <c r="B724">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.35">
@@ -2498,13 +2497,13 @@
     <row r="731" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B731">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B732">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.35">
@@ -2522,37 +2521,37 @@
     <row r="735" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B735">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B736">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="737" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B737">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="738" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B738">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="739" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B739">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="740" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B740">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="741" spans="2:2" x14ac:dyDescent="0.35">
@@ -2594,13 +2593,13 @@
     <row r="747" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B747">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="748" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B748">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="749" spans="2:2" x14ac:dyDescent="0.35">
@@ -2618,37 +2617,37 @@
     <row r="751" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B751">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="752" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B752">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B753">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B754">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B755">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B756">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.35">
@@ -2693,7 +2692,7 @@
     <row r="763" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B763">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.35">
@@ -2702,7 +2701,7 @@
       </c>
       <c r="B764">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.35">
@@ -2750,7 +2749,7 @@
     <row r="771" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B771">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.35">
@@ -2759,7 +2758,7 @@
       </c>
       <c r="B772">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.35">
@@ -2795,7 +2794,7 @@
     <row r="777" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B777">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.35">
@@ -2804,13 +2803,13 @@
       </c>
       <c r="B778">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B779">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.35">
@@ -2819,7 +2818,7 @@
       </c>
       <c r="B780">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.35">
@@ -2836,8 +2835,8 @@
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B783">
-        <f t="shared" ref="B783:B846" si="4">SUM(A783:A866)</f>
-        <v>17</v>
+        <f t="shared" ref="B783:B846" si="4">SUM(A783:A868)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.35">
@@ -2846,13 +2845,13 @@
       </c>
       <c r="B784">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B785">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.35">
@@ -2861,19 +2860,19 @@
       </c>
       <c r="B786">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B787">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B788">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.35">
@@ -2942,7 +2941,7 @@
     <row r="799" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B799">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.35">
@@ -2951,31 +2950,31 @@
       </c>
       <c r="B800">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B801">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B802">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B803">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B804">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.35">
@@ -2993,7 +2992,7 @@
     <row r="807" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B807">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.35">
@@ -3002,31 +3001,31 @@
       </c>
       <c r="B808">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B809">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B810">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B811">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B812">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.35">
@@ -3044,7 +3043,7 @@
     <row r="815" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B815">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.35">
@@ -3053,25 +3052,25 @@
       </c>
       <c r="B816">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B817">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B818">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B819">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.35">
@@ -3080,7 +3079,7 @@
       </c>
       <c r="B820">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.35">
@@ -3101,7 +3100,7 @@
     <row r="823" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B823">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.35">
@@ -3110,7 +3109,7 @@
       </c>
       <c r="B824">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.35">
@@ -3128,13 +3127,13 @@
     <row r="827" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B827">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B828">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.35">
@@ -3152,7 +3151,7 @@
     <row r="831" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B831">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.35">
@@ -3161,7 +3160,7 @@
       </c>
       <c r="B832">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.35">
@@ -3179,7 +3178,7 @@
     <row r="835" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B835">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.35">
@@ -3188,7 +3187,7 @@
       </c>
       <c r="B836">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.35">
@@ -3259,7 +3258,7 @@
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B847">
-        <f t="shared" ref="B847:B910" si="5">SUM(A847:A930)</f>
+        <f t="shared" ref="B847:B910" si="5">SUM(A847:A932)</f>
         <v>20</v>
       </c>
     </row>
@@ -3287,13 +3286,13 @@
     <row r="851" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B851">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B852">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.35">
@@ -3365,7 +3364,7 @@
     <row r="863" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B863">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.35">
@@ -3374,25 +3373,25 @@
       </c>
       <c r="B864">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B865">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B866">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B867">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.35">
@@ -3401,7 +3400,7 @@
       </c>
       <c r="B868">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.35">
@@ -3473,31 +3472,31 @@
     <row r="879" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B879">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B880">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B881">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B882">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B883">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.35">
@@ -3506,7 +3505,7 @@
       </c>
       <c r="B884">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.35">
@@ -3554,7 +3553,7 @@
     <row r="891" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B891">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.35">
@@ -3563,7 +3562,7 @@
       </c>
       <c r="B892">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.35">
@@ -3611,7 +3610,7 @@
     <row r="899" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B899">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.35">
@@ -3620,7 +3619,7 @@
       </c>
       <c r="B900">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.35">
@@ -3694,7 +3693,7 @@
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B911">
-        <f t="shared" ref="B911:B974" si="6">SUM(A911:A994)</f>
+        <f t="shared" ref="B911:B974" si="6">SUM(A911:A996)</f>
         <v>13</v>
       </c>
     </row>
@@ -3722,7 +3721,7 @@
     <row r="915" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B915">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.35">
@@ -3731,7 +3730,7 @@
       </c>
       <c r="B916">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.35">
@@ -3800,37 +3799,37 @@
     <row r="927" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B927">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B928">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B929">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B930">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B931">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B932">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.35">
@@ -3899,31 +3898,31 @@
     <row r="943" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B943">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B944">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B945">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B946">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B947">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.35">
@@ -3932,7 +3931,7 @@
       </c>
       <c r="B948">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.35">
@@ -3980,13 +3979,13 @@
     <row r="955" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B955">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B956">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.35">
@@ -4028,7 +4027,7 @@
     <row r="963" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B963">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.35">
@@ -4037,7 +4036,7 @@
       </c>
       <c r="B964">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.35">
@@ -4085,13 +4084,13 @@
     <row r="971" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B971">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B972">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.35">
@@ -4108,7 +4107,7 @@
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B975">
-        <f t="shared" ref="B975:B1038" si="7">SUM(A975:A1058)</f>
+        <f t="shared" ref="B975:B1038" si="7">SUM(A975:A1060)</f>
         <v>18</v>
       </c>
     </row>
@@ -4136,13 +4135,13 @@
     <row r="979" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B979">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B980">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.35">
@@ -4187,13 +4186,13 @@
     <row r="987" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B987">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B988">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.35">
@@ -4211,37 +4210,37 @@
     <row r="991" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B991">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B992">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B993">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B994">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B995">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B996">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.35">
@@ -4310,31 +4309,31 @@
     <row r="1007" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1007">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1008" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1008">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1009" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1009">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1010" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1010">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1011" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1011">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.35">
@@ -4343,7 +4342,7 @@
       </c>
       <c r="B1012">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.35">
@@ -4391,13 +4390,13 @@
     <row r="1019" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1019">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1020" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1020">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1021" spans="1:2" x14ac:dyDescent="0.35">
@@ -4415,13 +4414,13 @@
     <row r="1023" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1023">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1024" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1024">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1025" spans="1:2" x14ac:dyDescent="0.35">
@@ -4439,7 +4438,7 @@
     <row r="1027" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1027">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1028" spans="1:2" x14ac:dyDescent="0.35">
@@ -4448,13 +4447,13 @@
       </c>
       <c r="B1028">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1029" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1029">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1030" spans="1:2" x14ac:dyDescent="0.35">
@@ -4463,7 +4462,7 @@
       </c>
       <c r="B1030">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1031" spans="1:2" x14ac:dyDescent="0.35">
@@ -4519,8 +4518,8 @@
     </row>
     <row r="1039" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1039">
-        <f t="shared" ref="B1039:B1102" si="8">SUM(A1039:A1122)</f>
-        <v>18</v>
+        <f t="shared" ref="B1039:B1102" si="8">SUM(A1039:A1124)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="1040" spans="1:2" x14ac:dyDescent="0.35">
@@ -4529,19 +4528,19 @@
       </c>
       <c r="B1040">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1041" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1041">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1042" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1042">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1043" spans="1:2" x14ac:dyDescent="0.35">
@@ -4598,25 +4597,25 @@
     <row r="1051" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1051">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1052">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1053" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1053">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1054">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1055" spans="1:2" x14ac:dyDescent="0.35">
@@ -4649,25 +4648,25 @@
     <row r="1059" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1059">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1060">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1061" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1061">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1062" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1062">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1063" spans="1:2" x14ac:dyDescent="0.35">
@@ -4724,7 +4723,7 @@
     <row r="1071" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1071">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1072" spans="1:2" x14ac:dyDescent="0.35">
@@ -4733,19 +4732,19 @@
       </c>
       <c r="B1072">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1073" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1073">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1074" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1074">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1075" spans="1:5" x14ac:dyDescent="0.35">
@@ -4840,7 +4839,7 @@
     <row r="1083" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1083">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1083">
         <f t="shared" si="9"/>
@@ -4850,7 +4849,7 @@
     <row r="1084" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1084">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1084">
         <f t="shared" si="9"/>
@@ -4860,7 +4859,7 @@
     <row r="1085" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1085">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1085">
         <f t="shared" si="9"/>
@@ -4870,7 +4869,7 @@
     <row r="1086" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1086">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1086">
         <f t="shared" si="9"/>
@@ -4880,7 +4879,7 @@
     <row r="1087" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1087">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1087">
         <f t="shared" si="9"/>
@@ -4890,7 +4889,7 @@
     <row r="1088" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1088">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1088">
         <f t="shared" si="9"/>
@@ -4900,7 +4899,7 @@
     <row r="1089" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1089">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1089">
         <f t="shared" si="9"/>
@@ -4910,7 +4909,7 @@
     <row r="1090" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1090">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1090">
         <f t="shared" si="9"/>
@@ -4920,7 +4919,7 @@
     <row r="1091" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1091">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1091">
         <f t="shared" si="9"/>
@@ -4933,7 +4932,7 @@
       </c>
       <c r="B1092">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1092">
         <f t="shared" si="9"/>
@@ -4943,7 +4942,7 @@
     <row r="1093" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1093">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1093">
         <f t="shared" si="9"/>
@@ -4956,7 +4955,7 @@
       </c>
       <c r="B1094">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1094">
         <f t="shared" si="9"/>
@@ -4966,7 +4965,7 @@
     <row r="1095" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1095">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1095">
         <f t="shared" si="9"/>
@@ -4979,7 +4978,7 @@
       </c>
       <c r="B1096">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1096">
         <f t="shared" si="9"/>
@@ -4989,7 +4988,7 @@
     <row r="1097" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1097">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1097">
         <f t="shared" si="9"/>
@@ -4999,7 +4998,7 @@
     <row r="1098" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1098">
         <f t="shared" si="8"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1098">
         <f t="shared" si="9"/>
@@ -5009,7 +5008,7 @@
     <row r="1099" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1099">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1099">
         <f t="shared" si="9"/>
@@ -5019,7 +5018,7 @@
     <row r="1100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1100">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1100">
         <f t="shared" si="9"/>
@@ -5048,8 +5047,8 @@
     </row>
     <row r="1103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1103">
-        <f t="shared" ref="B1103:B1166" si="10">SUM(A1103:A1186)</f>
-        <v>21</v>
+        <f t="shared" ref="B1103:B1166" si="10">SUM(A1103:A1188)</f>
+        <v>22</v>
       </c>
       <c r="D1103">
         <f t="shared" si="9"/>
@@ -5062,7 +5061,7 @@
       </c>
       <c r="B1104">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1104">
         <f t="shared" si="9"/>
@@ -5072,7 +5071,7 @@
     <row r="1105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1105">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1105">
         <f t="shared" si="9"/>
@@ -5082,7 +5081,7 @@
     <row r="1106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1106">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1106">
         <f t="shared" si="9"/>
@@ -5183,7 +5182,7 @@
       <c r="A1115" s="1"/>
       <c r="B1115">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1115">
         <f t="shared" si="9"/>
@@ -5194,7 +5193,7 @@
       <c r="A1116" s="1"/>
       <c r="B1116">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1116">
         <f t="shared" si="9"/>
@@ -5205,7 +5204,7 @@
       <c r="A1117" s="1"/>
       <c r="B1117">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1117">
         <f t="shared" si="9"/>
@@ -5216,7 +5215,7 @@
       <c r="A1118" s="1"/>
       <c r="B1118">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1118">
         <f t="shared" si="9"/>
@@ -5271,7 +5270,7 @@
       <c r="A1123" s="1"/>
       <c r="B1123">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1123">
         <f t="shared" si="9"/>
@@ -5284,7 +5283,7 @@
       </c>
       <c r="B1124">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1124">
         <f t="shared" si="9"/>
@@ -5295,7 +5294,7 @@
       <c r="A1125" s="1"/>
       <c r="B1125">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1125">
         <f t="shared" si="9"/>
@@ -5308,7 +5307,7 @@
       </c>
       <c r="B1126">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1126">
         <f t="shared" si="9"/>
@@ -5385,7 +5384,7 @@
       <c r="A1133" s="1"/>
       <c r="B1133">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1133">
         <f t="shared" si="9"/>
@@ -5396,7 +5395,7 @@
       <c r="A1134" s="1"/>
       <c r="B1134">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1134">
         <f t="shared" si="9"/>
@@ -5407,7 +5406,7 @@
       <c r="A1135" s="1"/>
       <c r="B1135">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1135">
         <f t="shared" si="9"/>
@@ -5420,7 +5419,7 @@
       </c>
       <c r="B1136">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1136">
         <f t="shared" si="9"/>
@@ -5431,7 +5430,7 @@
       <c r="A1137" s="1"/>
       <c r="B1137">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1137">
         <f t="shared" si="9"/>
@@ -5444,7 +5443,7 @@
       </c>
       <c r="B1138">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1138">
         <f t="shared" si="9"/>
@@ -5455,7 +5454,7 @@
       <c r="A1139" s="1"/>
       <c r="B1139">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1139">
         <f t="shared" si="9"/>
@@ -5466,7 +5465,7 @@
       <c r="A1140" s="1"/>
       <c r="B1140">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1140">
         <f t="shared" si="9"/>
@@ -5477,7 +5476,7 @@
       <c r="A1141" s="1"/>
       <c r="B1141">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1141">
         <f t="shared" ref="D1141:D1204" si="11">SUM(A1141:A1307)</f>
@@ -5488,7 +5487,7 @@
       <c r="A1142" s="1"/>
       <c r="B1142">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1142">
         <f t="shared" si="11"/>
@@ -5523,7 +5522,7 @@
       <c r="A1145" s="1"/>
       <c r="B1145">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1145">
         <f t="shared" si="11"/>
@@ -5536,7 +5535,7 @@
       </c>
       <c r="B1146">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1146">
         <f t="shared" si="11"/>
@@ -5547,7 +5546,7 @@
       <c r="A1147" s="1"/>
       <c r="B1147">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1147">
         <f t="shared" si="11"/>
@@ -5558,7 +5557,7 @@
       <c r="A1148" s="1"/>
       <c r="B1148">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1148">
         <f t="shared" si="11"/>
@@ -5635,7 +5634,7 @@
       <c r="A1155" s="1"/>
       <c r="B1155">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1155">
         <f t="shared" si="11"/>
@@ -5648,7 +5647,7 @@
       </c>
       <c r="B1156">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1156">
         <f t="shared" si="11"/>
@@ -5659,7 +5658,7 @@
       <c r="A1157" s="1"/>
       <c r="B1157">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1157">
         <f t="shared" si="11"/>
@@ -5672,7 +5671,7 @@
       </c>
       <c r="B1158">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1158">
         <f t="shared" si="11"/>
@@ -5756,7 +5755,7 @@
       </c>
       <c r="C1166">
         <f>MAX(B1166:B1540)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1166">
         <f t="shared" si="11"/>
@@ -5765,8 +5764,8 @@
     </row>
     <row r="1167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1167">
-        <f t="shared" ref="B1167:B1230" si="12">SUM(A1167:A1250)</f>
-        <v>24</v>
+        <f t="shared" ref="B1167:B1230" si="12">SUM(A1167:A1252)</f>
+        <v>25</v>
       </c>
       <c r="D1167">
         <f t="shared" si="11"/>
@@ -5779,7 +5778,7 @@
       </c>
       <c r="B1168">
         <f t="shared" si="12"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1168">
         <f t="shared" si="11"/>
@@ -5789,7 +5788,7 @@
     <row r="1169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1169">
         <f t="shared" si="12"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1169">
         <f t="shared" si="11"/>
@@ -5802,7 +5801,7 @@
       </c>
       <c r="B1170">
         <f t="shared" si="12"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1170">
         <f t="shared" si="11"/>
@@ -5904,7 +5903,7 @@
     <row r="1179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1179">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1179">
         <f t="shared" si="11"/>
@@ -5917,7 +5916,7 @@
       </c>
       <c r="B1180">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1180">
         <f t="shared" si="11"/>
@@ -5927,7 +5926,7 @@
     <row r="1181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1181">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1181">
         <f t="shared" si="11"/>
@@ -5940,7 +5939,7 @@
       </c>
       <c r="B1182">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1182">
         <f t="shared" si="11"/>
@@ -5993,7 +5992,7 @@
     <row r="1187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1187">
         <f t="shared" si="12"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1187">
         <f t="shared" si="11"/>
@@ -6006,7 +6005,7 @@
       </c>
       <c r="B1188">
         <f t="shared" si="12"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1188">
         <f t="shared" si="11"/>
@@ -6016,7 +6015,7 @@
     <row r="1189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1189">
         <f t="shared" si="12"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1189">
         <f t="shared" si="11"/>
@@ -6029,7 +6028,7 @@
       </c>
       <c r="B1190">
         <f t="shared" si="12"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1190">
         <f t="shared" si="11"/>
@@ -6119,7 +6118,7 @@
     <row r="1199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1199">
         <f t="shared" si="12"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1199">
         <f t="shared" si="11"/>
@@ -6132,7 +6131,7 @@
       </c>
       <c r="B1200">
         <f t="shared" si="12"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1200">
         <f t="shared" si="11"/>
@@ -6142,7 +6141,7 @@
     <row r="1201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1201">
         <f t="shared" si="12"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1201">
         <f t="shared" si="11"/>
@@ -6155,7 +6154,7 @@
       </c>
       <c r="B1202">
         <f t="shared" si="12"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1202">
         <f t="shared" si="11"/>
@@ -6251,7 +6250,7 @@
     <row r="1211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1211">
         <f t="shared" si="12"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1211">
         <f t="shared" si="13"/>
@@ -6261,7 +6260,7 @@
     <row r="1212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1212">
         <f t="shared" si="12"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1212">
         <f t="shared" si="13"/>
@@ -6271,7 +6270,7 @@
     <row r="1213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1213">
         <f t="shared" si="12"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1213">
         <f t="shared" si="13"/>
@@ -6281,7 +6280,7 @@
     <row r="1214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1214">
         <f t="shared" si="12"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1214">
         <f t="shared" si="13"/>
@@ -6291,7 +6290,7 @@
     <row r="1215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1215">
         <f t="shared" si="12"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1215">
         <f t="shared" si="13"/>
@@ -6301,7 +6300,7 @@
     <row r="1216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1216">
         <f t="shared" si="12"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1216">
         <f t="shared" si="13"/>
@@ -6311,7 +6310,7 @@
     <row r="1217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1217">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1217">
         <f t="shared" si="13"/>
@@ -6324,7 +6323,7 @@
       </c>
       <c r="B1218">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1218">
         <f t="shared" si="13"/>
@@ -6334,7 +6333,7 @@
     <row r="1219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1219">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1219">
         <f t="shared" si="13"/>
@@ -6347,7 +6346,7 @@
       </c>
       <c r="B1220">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1220">
         <f t="shared" si="13"/>
@@ -6357,7 +6356,7 @@
     <row r="1221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1221">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1221">
         <f t="shared" si="13"/>
@@ -6370,7 +6369,7 @@
       </c>
       <c r="B1222">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1222">
         <f t="shared" si="13"/>
@@ -6380,7 +6379,7 @@
     <row r="1223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1223">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1223">
         <f t="shared" si="13"/>
@@ -6393,7 +6392,7 @@
       </c>
       <c r="B1224">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1224">
         <f t="shared" si="13"/>
@@ -6403,7 +6402,7 @@
     <row r="1225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1225">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1225">
         <f t="shared" si="13"/>
@@ -6416,7 +6415,7 @@
       </c>
       <c r="B1226">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1226">
         <f t="shared" si="13"/>
@@ -6426,7 +6425,7 @@
     <row r="1227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1227">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1227">
         <f t="shared" si="13"/>
@@ -6436,7 +6435,7 @@
     <row r="1228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1228">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1228">
         <f t="shared" si="13"/>
@@ -6468,8 +6467,8 @@
     </row>
     <row r="1231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1231">
-        <f t="shared" ref="B1231:B1294" si="14">SUM(A1231:A1314)</f>
-        <v>20</v>
+        <f t="shared" ref="B1231:B1294" si="14">SUM(A1231:A1316)</f>
+        <v>21</v>
       </c>
       <c r="D1231">
         <f t="shared" si="13"/>
@@ -6482,7 +6481,7 @@
       </c>
       <c r="B1232">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1232">
         <f t="shared" si="13"/>
@@ -6492,7 +6491,7 @@
     <row r="1233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1233">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1233">
         <f t="shared" si="13"/>
@@ -6502,7 +6501,7 @@
     <row r="1234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1234">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1234">
         <f t="shared" si="13"/>
@@ -6598,7 +6597,7 @@
     <row r="1243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1243">
         <f t="shared" si="14"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1243">
         <f t="shared" si="13"/>
@@ -6608,7 +6607,7 @@
     <row r="1244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1244">
         <f t="shared" si="14"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1244">
         <f t="shared" si="13"/>
@@ -6618,7 +6617,7 @@
     <row r="1245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1245">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1245">
         <f t="shared" si="13"/>
@@ -6628,7 +6627,7 @@
     <row r="1246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1246">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1246">
         <f t="shared" si="13"/>
@@ -6678,7 +6677,7 @@
     <row r="1251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1251">
         <f t="shared" si="14"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1251">
         <f t="shared" si="13"/>
@@ -6691,7 +6690,7 @@
       </c>
       <c r="B1252">
         <f t="shared" si="14"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1252">
         <f t="shared" si="13"/>
@@ -6701,7 +6700,7 @@
     <row r="1253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1253">
         <f t="shared" si="14"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1253">
         <f t="shared" si="13"/>
@@ -6714,7 +6713,7 @@
       </c>
       <c r="B1254">
         <f t="shared" si="14"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1254">
         <f t="shared" si="13"/>
@@ -6784,7 +6783,7 @@
     <row r="1261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1261">
         <f t="shared" si="14"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1261">
         <f t="shared" si="13"/>
@@ -6794,7 +6793,7 @@
     <row r="1262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1262">
         <f t="shared" si="14"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1262">
         <f t="shared" si="13"/>
@@ -6804,7 +6803,7 @@
     <row r="1263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1263">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1263">
         <f t="shared" si="13"/>
@@ -6817,7 +6816,7 @@
       </c>
       <c r="B1264">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1264">
         <f t="shared" si="13"/>
@@ -6827,7 +6826,7 @@
     <row r="1265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1265">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1265">
         <f t="shared" si="13"/>
@@ -6840,7 +6839,7 @@
       </c>
       <c r="B1266">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1266">
         <f t="shared" si="13"/>
@@ -6850,7 +6849,7 @@
     <row r="1267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1267">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1267">
         <f t="shared" si="13"/>
@@ -6860,7 +6859,7 @@
     <row r="1268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1268">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1268">
         <f t="shared" si="13"/>
@@ -6870,7 +6869,7 @@
     <row r="1269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1269">
         <f t="shared" si="14"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1269">
         <f t="shared" ref="D1269:D1332" si="15">SUM(A1269:A1435)</f>
@@ -6880,7 +6879,7 @@
     <row r="1270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1270">
         <f t="shared" si="14"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1270">
         <f t="shared" si="15"/>
@@ -6913,7 +6912,7 @@
     <row r="1273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1273">
         <f t="shared" si="14"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1273">
         <f t="shared" si="15"/>
@@ -6926,7 +6925,7 @@
       </c>
       <c r="B1274">
         <f t="shared" si="14"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1274">
         <f t="shared" si="15"/>
@@ -6936,7 +6935,7 @@
     <row r="1275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1275">
         <f t="shared" si="14"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1275">
         <f t="shared" si="15"/>
@@ -6946,7 +6945,7 @@
     <row r="1276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1276">
         <f t="shared" si="14"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1276">
         <f t="shared" si="15"/>
@@ -7016,7 +7015,7 @@
     <row r="1283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1283">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1283">
         <f t="shared" si="15"/>
@@ -7027,9 +7026,9 @@
       <c r="A1284">
         <v>1</v>
       </c>
-      <c r="B1284" s="5">
+      <c r="B1284" s="2">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1284">
         <f t="shared" si="15"/>
@@ -7050,7 +7049,7 @@
       <c r="A1286">
         <v>1</v>
       </c>
-      <c r="B1286" s="3">
+      <c r="B1286">
         <f t="shared" si="14"/>
         <v>25</v>
       </c>
@@ -7141,8 +7140,8 @@
     </row>
     <row r="1295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1295">
-        <f t="shared" ref="B1295:B1358" si="16">SUM(A1295:A1378)</f>
-        <v>24</v>
+        <f t="shared" ref="B1295:B1358" si="16">SUM(A1295:A1380)</f>
+        <v>26</v>
       </c>
       <c r="D1295">
         <f t="shared" si="15"/>
@@ -7155,7 +7154,7 @@
       </c>
       <c r="B1296">
         <f t="shared" si="16"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1296">
         <f t="shared" si="15"/>
@@ -7234,7 +7233,7 @@
     <row r="1303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1303">
         <f t="shared" si="16"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1303">
         <f t="shared" si="15"/>
@@ -7247,7 +7246,7 @@
       </c>
       <c r="B1304">
         <f t="shared" si="16"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1304">
         <f t="shared" si="15"/>
@@ -7280,7 +7279,7 @@
     <row r="1307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1307">
         <f t="shared" si="16"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1307">
         <f t="shared" si="15"/>
@@ -7293,7 +7292,7 @@
       </c>
       <c r="B1308">
         <f t="shared" si="16"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1308">
         <f t="shared" si="15"/>
@@ -7369,7 +7368,7 @@
     <row r="1315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1315">
         <f t="shared" si="16"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1315">
         <f t="shared" si="15"/>
@@ -7382,7 +7381,7 @@
       </c>
       <c r="B1316">
         <f t="shared" si="16"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1316">
         <f t="shared" si="15"/>
@@ -7495,7 +7494,7 @@
     <row r="1327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1327">
         <f t="shared" si="16"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1327">
         <f t="shared" si="15"/>
@@ -7508,7 +7507,7 @@
       </c>
       <c r="B1328">
         <f t="shared" si="16"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1328">
         <f t="shared" si="15"/>
@@ -7581,7 +7580,7 @@
     <row r="1335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1335">
         <f t="shared" si="16"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1335">
         <f t="shared" si="17"/>
@@ -7594,7 +7593,7 @@
       </c>
       <c r="B1336">
         <f t="shared" si="16"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1336">
         <f t="shared" si="17"/>
@@ -7627,7 +7626,7 @@
     <row r="1339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1339">
         <f t="shared" si="16"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1339">
         <f t="shared" si="17"/>
@@ -7637,7 +7636,7 @@
     <row r="1340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1340">
         <f t="shared" si="16"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1340">
         <f t="shared" si="17"/>
@@ -7667,7 +7666,7 @@
     <row r="1343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1343">
         <f t="shared" si="16"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1343">
         <f t="shared" si="17"/>
@@ -7677,7 +7676,7 @@
     <row r="1344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1344">
         <f t="shared" si="16"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1344">
         <f t="shared" si="17"/>
@@ -7710,7 +7709,7 @@
     <row r="1347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1347">
         <f t="shared" si="16"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1347">
         <f t="shared" si="17"/>
@@ -7723,7 +7722,7 @@
       </c>
       <c r="B1348">
         <f t="shared" si="16"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1348">
         <f t="shared" si="17"/>
@@ -7844,8 +7843,8 @@
     </row>
     <row r="1359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1359">
-        <f t="shared" ref="B1359:B1422" si="18">SUM(A1359:A1442)</f>
-        <v>14</v>
+        <f t="shared" ref="B1359:B1422" si="18">SUM(A1359:A1444)</f>
+        <v>15</v>
       </c>
       <c r="D1359">
         <f t="shared" si="17"/>
@@ -7858,7 +7857,7 @@
       </c>
       <c r="B1360">
         <f t="shared" si="18"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1360">
         <f t="shared" si="17"/>
@@ -7928,7 +7927,7 @@
     <row r="1367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1367">
         <f t="shared" si="18"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1367">
         <f t="shared" si="17"/>
@@ -7941,7 +7940,7 @@
       </c>
       <c r="B1368">
         <f t="shared" si="18"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1368">
         <f t="shared" si="17"/>
@@ -7971,7 +7970,7 @@
     <row r="1371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1371">
         <f t="shared" si="18"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1371">
         <f t="shared" si="17"/>
@@ -7981,7 +7980,7 @@
     <row r="1372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1372">
         <f t="shared" si="18"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1372">
         <f t="shared" si="17"/>
@@ -8051,7 +8050,7 @@
     <row r="1379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1379">
         <f t="shared" si="18"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1379">
         <f t="shared" si="17"/>
@@ -8064,7 +8063,7 @@
       </c>
       <c r="B1380">
         <f t="shared" si="18"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1380">
         <f t="shared" si="17"/>
@@ -8177,7 +8176,7 @@
     <row r="1391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1391">
         <f t="shared" si="18"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1391">
         <f t="shared" si="17"/>
@@ -8190,7 +8189,7 @@
       </c>
       <c r="B1392">
         <f t="shared" si="18"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1392">
         <f t="shared" si="17"/>
@@ -8383,7 +8382,7 @@
     <row r="1411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1411">
         <f t="shared" si="18"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1411">
         <f t="shared" si="19"/>
@@ -8396,7 +8395,7 @@
       </c>
       <c r="B1412">
         <f t="shared" si="18"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1412">
         <f t="shared" si="19"/>
@@ -8508,8 +8507,8 @@
     </row>
     <row r="1423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1423">
-        <f t="shared" ref="B1423:B1486" si="20">SUM(A1423:A1506)</f>
-        <v>9</v>
+        <f t="shared" ref="B1423:B1486" si="20">SUM(A1423:A1508)</f>
+        <v>10</v>
       </c>
       <c r="D1423">
         <f t="shared" si="19"/>
@@ -8522,7 +8521,7 @@
       </c>
       <c r="B1424">
         <f t="shared" si="20"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1424">
         <f t="shared" si="19"/>
@@ -8595,7 +8594,7 @@
     <row r="1431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1431">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1431">
         <f t="shared" si="19"/>
@@ -8608,7 +8607,7 @@
       </c>
       <c r="B1432">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1432">
         <f t="shared" si="19"/>
@@ -8638,7 +8637,7 @@
     <row r="1435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1435">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D1435">
         <f t="shared" si="19"/>
@@ -8648,7 +8647,7 @@
     <row r="1436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1436">
         <f t="shared" si="20"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D1436">
         <f t="shared" si="19"/>
@@ -8718,7 +8717,7 @@
     <row r="1443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1443">
         <f t="shared" si="20"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1443">
         <f t="shared" si="19"/>
@@ -8731,7 +8730,7 @@
       </c>
       <c r="B1444">
         <f t="shared" si="20"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1444">
         <f t="shared" si="19"/>
@@ -8844,7 +8843,7 @@
     <row r="1455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1455">
         <f t="shared" si="20"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1455">
         <f t="shared" si="19"/>
@@ -8857,7 +8856,7 @@
       </c>
       <c r="B1456">
         <f t="shared" si="20"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1456">
         <f t="shared" si="19"/>
@@ -8974,7 +8973,7 @@
     <row r="1467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1467">
         <f t="shared" si="20"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1467">
         <f t="shared" si="21"/>
@@ -8984,7 +8983,7 @@
     <row r="1468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1468">
         <f t="shared" si="20"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1468">
         <f t="shared" si="21"/>
@@ -9014,7 +9013,7 @@
     <row r="1471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1471">
         <f t="shared" si="20"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1471">
         <f t="shared" si="21"/>
@@ -9024,7 +9023,7 @@
     <row r="1472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1472">
         <f t="shared" si="20"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1472">
         <f t="shared" si="21"/>
@@ -9054,7 +9053,7 @@
     <row r="1475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1475">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1475">
         <f t="shared" si="21"/>
@@ -9067,7 +9066,7 @@
       </c>
       <c r="B1476">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1476">
         <f t="shared" si="21"/>
@@ -9157,7 +9156,7 @@
     <row r="1485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1485">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1485">
         <f t="shared" si="21"/>
@@ -9167,7 +9166,7 @@
     <row r="1486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1486">
         <f t="shared" si="20"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1486">
         <f t="shared" si="21"/>
@@ -9176,7 +9175,7 @@
     </row>
     <row r="1487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1487">
-        <f t="shared" ref="B1487:B1550" si="22">SUM(A1487:A1570)</f>
+        <f t="shared" ref="B1487:B1550" si="22">SUM(A1487:A1572)</f>
         <v>12</v>
       </c>
       <c r="F1487">
@@ -9300,7 +9299,7 @@
     <row r="1499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1499">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1499">
         <f t="shared" si="21"/>
@@ -9310,7 +9309,7 @@
     <row r="1500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1500">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1500">
         <f t="shared" si="21"/>
@@ -9340,7 +9339,7 @@
     <row r="1503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1503">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1503">
         <f t="shared" si="21"/>
@@ -9350,7 +9349,7 @@
     <row r="1504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1504">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1504">
         <f t="shared" si="21"/>
@@ -9380,7 +9379,7 @@
     <row r="1507" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1507">
         <f t="shared" si="22"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1507">
         <f t="shared" si="21"/>
@@ -9393,7 +9392,7 @@
       </c>
       <c r="B1508">
         <f t="shared" si="22"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1508">
         <f t="shared" si="21"/>
@@ -9506,7 +9505,7 @@
     <row r="1519" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1519">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1519">
         <f t="shared" si="21"/>
@@ -9519,7 +9518,7 @@
       </c>
       <c r="B1520">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1520">
         <f t="shared" si="21"/>
@@ -9549,7 +9548,7 @@
     <row r="1523" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1523">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1523">
         <f t="shared" ref="F1523:F1540" si="23">SUM(A1523:A1772)</f>
@@ -9559,7 +9558,7 @@
     <row r="1524" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1524">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1524">
         <f t="shared" si="23"/>
@@ -9612,7 +9611,7 @@
     <row r="1529" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1529">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1529">
         <f t="shared" si="23"/>
@@ -9622,7 +9621,7 @@
     <row r="1530" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1530">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1530">
         <f t="shared" si="23"/>
@@ -9632,7 +9631,7 @@
     <row r="1531" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1531">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1531">
         <f t="shared" si="23"/>
@@ -9642,7 +9641,7 @@
     <row r="1532" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1532">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1532">
         <f t="shared" si="23"/>
@@ -9652,7 +9651,7 @@
     <row r="1533" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1533">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1533">
         <f t="shared" si="23"/>
@@ -9662,7 +9661,7 @@
     <row r="1534" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1534">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1534">
         <f t="shared" si="23"/>
@@ -9712,7 +9711,7 @@
     <row r="1539" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1539">
         <f t="shared" si="22"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1539">
         <f t="shared" si="23"/>
@@ -9725,7 +9724,7 @@
       </c>
       <c r="B1540">
         <f t="shared" si="22"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1540">
         <f t="shared" si="23"/>
@@ -9813,8 +9812,8 @@
     <row r="1551" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1551" s="1"/>
       <c r="B1551">
-        <f t="shared" ref="B1551:B1614" si="24">SUM(A1551:A1634)</f>
-        <v>14</v>
+        <f t="shared" ref="B1551:B1614" si="24">SUM(A1551:A1636)</f>
+        <v>15</v>
       </c>
       <c r="D1551">
         <f t="shared" ref="D1551:D1614" si="25">SUM(A1551:A1717)</f>
@@ -9827,7 +9826,7 @@
       </c>
       <c r="B1552">
         <f t="shared" si="24"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1552">
         <f t="shared" si="25"/>
@@ -9838,7 +9837,7 @@
       <c r="A1553" s="1"/>
       <c r="B1553">
         <f t="shared" si="24"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1553">
         <f t="shared" si="25"/>
@@ -9849,7 +9848,7 @@
       <c r="A1554" s="1"/>
       <c r="B1554">
         <f t="shared" si="24"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1554">
         <f t="shared" si="25"/>
@@ -9860,7 +9859,7 @@
       <c r="A1555" s="1"/>
       <c r="B1555">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1555">
         <f t="shared" si="25"/>
@@ -9873,7 +9872,7 @@
       </c>
       <c r="B1556">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1556">
         <f t="shared" si="25"/>
@@ -9996,7 +9995,7 @@
       <c r="A1567" s="1"/>
       <c r="B1567">
         <f t="shared" si="24"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1567">
         <f t="shared" si="25"/>
@@ -10007,7 +10006,7 @@
       <c r="A1568" s="1"/>
       <c r="B1568">
         <f t="shared" si="24"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1568">
         <f t="shared" si="25"/>
@@ -10018,7 +10017,7 @@
       <c r="A1569" s="1"/>
       <c r="B1569">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1569">
         <f t="shared" si="25"/>
@@ -10031,7 +10030,7 @@
       </c>
       <c r="B1570">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1570">
         <f t="shared" si="25"/>
@@ -10042,7 +10041,7 @@
       <c r="A1571" s="1"/>
       <c r="B1571">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1571">
         <f t="shared" si="25"/>
@@ -10053,7 +10052,7 @@
       <c r="A1572" s="1"/>
       <c r="B1572">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1572">
         <f t="shared" si="25"/>
@@ -10086,7 +10085,7 @@
       <c r="A1575" s="1"/>
       <c r="B1575">
         <f t="shared" si="24"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1575">
         <f t="shared" si="25"/>
@@ -10097,7 +10096,7 @@
       <c r="A1576" s="1"/>
       <c r="B1576">
         <f t="shared" si="24"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1576">
         <f t="shared" si="25"/>
@@ -10108,7 +10107,7 @@
       <c r="A1577" s="1"/>
       <c r="B1577">
         <f t="shared" si="24"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1577">
         <f t="shared" si="25"/>
@@ -10119,7 +10118,7 @@
       <c r="A1578" s="1"/>
       <c r="B1578">
         <f t="shared" si="24"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1578">
         <f t="shared" si="25"/>
@@ -10152,7 +10151,7 @@
       <c r="A1581" s="1"/>
       <c r="B1581">
         <f t="shared" si="24"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1581">
         <f t="shared" si="25"/>
@@ -10163,7 +10162,7 @@
       <c r="A1582" s="1"/>
       <c r="B1582">
         <f t="shared" si="24"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1582">
         <f t="shared" si="25"/>
@@ -10174,7 +10173,7 @@
       <c r="A1583" s="1"/>
       <c r="B1583">
         <f t="shared" si="24"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1583">
         <f t="shared" si="25"/>
@@ -10187,7 +10186,7 @@
       </c>
       <c r="B1584">
         <f t="shared" si="24"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1584">
         <f t="shared" si="25"/>
@@ -10220,7 +10219,7 @@
       <c r="A1587" s="1"/>
       <c r="B1587">
         <f t="shared" si="24"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1587">
         <f t="shared" si="25"/>
@@ -10233,7 +10232,7 @@
       </c>
       <c r="B1588">
         <f t="shared" si="24"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1588">
         <f t="shared" si="25"/>
@@ -10266,7 +10265,7 @@
       <c r="A1591" s="1"/>
       <c r="B1591">
         <f t="shared" si="24"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1591">
         <f t="shared" si="25"/>
@@ -10279,7 +10278,7 @@
       </c>
       <c r="B1592">
         <f t="shared" si="24"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1592">
         <f t="shared" si="25"/>
@@ -10312,7 +10311,7 @@
       <c r="A1595" s="1"/>
       <c r="B1595">
         <f t="shared" si="24"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1595">
         <f t="shared" si="25"/>
@@ -10323,7 +10322,7 @@
       <c r="A1596" s="1"/>
       <c r="B1596">
         <f t="shared" si="24"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1596">
         <f t="shared" si="25"/>
@@ -10356,7 +10355,7 @@
       <c r="A1599" s="1"/>
       <c r="B1599">
         <f t="shared" si="24"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1599">
         <f t="shared" si="25"/>
@@ -10367,7 +10366,7 @@
       <c r="A1600" s="1"/>
       <c r="B1600">
         <f t="shared" si="24"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1600">
         <f t="shared" si="25"/>
@@ -10400,7 +10399,7 @@
       <c r="A1603" s="1"/>
       <c r="B1603">
         <f t="shared" si="24"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1603">
         <f t="shared" si="25"/>
@@ -10413,7 +10412,7 @@
       </c>
       <c r="B1604">
         <f t="shared" si="24"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1604">
         <f t="shared" si="25"/>
@@ -10446,7 +10445,7 @@
       <c r="A1607" s="1"/>
       <c r="B1607">
         <f t="shared" si="24"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1607">
         <f t="shared" si="25"/>
@@ -10459,7 +10458,7 @@
       </c>
       <c r="B1608">
         <f t="shared" si="24"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1608">
         <f t="shared" si="25"/>
@@ -10537,8 +10536,8 @@
     <row r="1615" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1615" s="1"/>
       <c r="B1615">
-        <f t="shared" ref="B1615:B1678" si="26">SUM(A1615:A1698)</f>
-        <v>20</v>
+        <f t="shared" ref="B1615:B1678" si="26">SUM(A1615:A1700)</f>
+        <v>21</v>
       </c>
       <c r="D1615">
         <f t="shared" ref="D1615:D1678" si="27">SUM(A1615:A1781)</f>
@@ -10551,7 +10550,7 @@
       </c>
       <c r="B1616">
         <f t="shared" si="26"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1616">
         <f t="shared" si="27"/>
@@ -10586,7 +10585,7 @@
       <c r="A1619" s="1"/>
       <c r="B1619">
         <f t="shared" si="26"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1619">
         <f t="shared" si="27"/>
@@ -10597,7 +10596,7 @@
       <c r="A1620" s="1"/>
       <c r="B1620">
         <f t="shared" si="26"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1620">
         <f t="shared" si="27"/>
@@ -10713,7 +10712,7 @@
     <row r="1631" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1631">
         <f t="shared" si="26"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1631">
         <f t="shared" si="27"/>
@@ -10723,7 +10722,7 @@
     <row r="1632" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1632">
         <f t="shared" si="26"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1632">
         <f t="shared" si="27"/>
@@ -10747,7 +10746,7 @@
       </c>
       <c r="C1634">
         <f>MAX(B1634:B2260)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1634">
         <f t="shared" si="27"/>
@@ -10757,7 +10756,7 @@
     <row r="1635" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1635">
         <f t="shared" si="26"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1635">
         <f t="shared" si="27"/>
@@ -10770,7 +10769,7 @@
       </c>
       <c r="B1636">
         <f t="shared" si="26"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1636">
         <f t="shared" si="27"/>
@@ -10803,7 +10802,7 @@
     <row r="1639" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1639">
         <f t="shared" si="26"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1639">
         <f t="shared" si="27"/>
@@ -10816,7 +10815,7 @@
       </c>
       <c r="B1640">
         <f t="shared" si="26"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1640">
         <f t="shared" si="27"/>
@@ -10826,7 +10825,7 @@
     <row r="1641" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1641">
         <f t="shared" si="26"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1641">
         <f t="shared" si="27"/>
@@ -10836,7 +10835,7 @@
     <row r="1642" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1642">
         <f t="shared" si="26"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1642">
         <f t="shared" si="27"/>
@@ -10886,7 +10885,7 @@
     <row r="1647" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1647">
         <f t="shared" si="26"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1647">
         <f t="shared" si="27"/>
@@ -10896,7 +10895,7 @@
     <row r="1648" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1648">
         <f t="shared" si="26"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1648">
         <f t="shared" si="27"/>
@@ -10926,7 +10925,7 @@
     <row r="1651" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1651">
         <f t="shared" si="26"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1651">
         <f t="shared" si="27"/>
@@ -10939,7 +10938,7 @@
       </c>
       <c r="B1652">
         <f t="shared" si="26"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1652">
         <f t="shared" si="27"/>
@@ -10949,7 +10948,7 @@
     <row r="1653" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1653">
         <f t="shared" si="26"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1653">
         <f t="shared" si="27"/>
@@ -10962,7 +10961,7 @@
       </c>
       <c r="B1654">
         <f t="shared" si="26"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1654">
         <f t="shared" si="27"/>
@@ -10972,7 +10971,7 @@
     <row r="1655" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1655">
         <f t="shared" si="26"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1655">
         <f t="shared" si="27"/>
@@ -10985,7 +10984,7 @@
       </c>
       <c r="B1656">
         <f t="shared" si="26"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1656">
         <f t="shared" si="27"/>
@@ -11015,7 +11014,7 @@
     <row r="1659" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1659">
         <f t="shared" si="26"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1659">
         <f t="shared" si="27"/>
@@ -11028,7 +11027,7 @@
       </c>
       <c r="B1660">
         <f t="shared" si="26"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1660">
         <f t="shared" si="27"/>
@@ -11104,7 +11103,7 @@
     <row r="1667" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1667">
         <f t="shared" si="26"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1667">
         <f t="shared" si="27"/>
@@ -11117,7 +11116,7 @@
       </c>
       <c r="B1668">
         <f t="shared" si="26"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1668">
         <f t="shared" si="27"/>
@@ -11147,7 +11146,7 @@
     <row r="1671" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1671">
         <f t="shared" si="26"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1671">
         <f t="shared" si="27"/>
@@ -11160,7 +11159,7 @@
       </c>
       <c r="B1672">
         <f t="shared" si="26"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1672">
         <f t="shared" si="27"/>
@@ -11190,7 +11189,7 @@
     <row r="1675" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1675">
         <f t="shared" si="26"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1675">
         <f t="shared" si="27"/>
@@ -11203,7 +11202,7 @@
       </c>
       <c r="B1676">
         <f t="shared" si="26"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1676">
         <f t="shared" si="27"/>
@@ -11232,8 +11231,8 @@
     </row>
     <row r="1679" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1679">
-        <f t="shared" ref="B1679:B1742" si="28">SUM(A1679:A1762)</f>
-        <v>19</v>
+        <f t="shared" ref="B1679:B1742" si="28">SUM(A1679:A1764)</f>
+        <v>20</v>
       </c>
       <c r="D1679">
         <f t="shared" ref="D1679:D1742" si="29">SUM(A1679:A1845)</f>
@@ -11246,7 +11245,7 @@
       </c>
       <c r="B1680">
         <f t="shared" si="28"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1680">
         <f t="shared" si="29"/>
@@ -11276,7 +11275,7 @@
     <row r="1683" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1683">
         <f t="shared" si="28"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1683">
         <f t="shared" si="29"/>
@@ -11289,7 +11288,7 @@
       </c>
       <c r="B1684">
         <f t="shared" si="28"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1684">
         <f t="shared" si="29"/>
@@ -11319,7 +11318,7 @@
     <row r="1687" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1687">
         <f t="shared" si="28"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1687">
         <f t="shared" si="29"/>
@@ -11332,7 +11331,7 @@
       </c>
       <c r="B1688">
         <f t="shared" si="28"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1688">
         <f t="shared" si="29"/>
@@ -11342,7 +11341,7 @@
     <row r="1689" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1689">
         <f t="shared" si="28"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1689">
         <f t="shared" si="29"/>
@@ -11352,7 +11351,7 @@
     <row r="1690" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1690">
         <f t="shared" si="28"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1690">
         <f t="shared" si="29"/>
@@ -11405,7 +11404,7 @@
     <row r="1695" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1695">
         <f t="shared" si="28"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1695">
         <f t="shared" si="29"/>
@@ -11415,7 +11414,7 @@
     <row r="1696" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1696">
         <f t="shared" si="28"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1696">
         <f t="shared" si="29"/>
@@ -11425,7 +11424,7 @@
     <row r="1697" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1697">
         <f t="shared" si="28"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1697">
         <f t="shared" si="29"/>
@@ -11435,7 +11434,7 @@
     <row r="1698" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1698">
         <f t="shared" si="28"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1698">
         <f t="shared" si="29"/>
@@ -11445,7 +11444,7 @@
     <row r="1699" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1699">
         <f t="shared" si="28"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1699">
         <f t="shared" si="29"/>
@@ -11458,7 +11457,7 @@
       </c>
       <c r="B1700">
         <f t="shared" si="28"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1700">
         <f t="shared" si="29"/>
@@ -11531,7 +11530,7 @@
     <row r="1707" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1707">
         <f t="shared" si="28"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1707">
         <f t="shared" si="29"/>
@@ -11541,7 +11540,7 @@
     <row r="1708" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1708">
         <f t="shared" si="28"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1708">
         <f t="shared" si="29"/>
@@ -11611,7 +11610,7 @@
     <row r="1715" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1715">
         <f t="shared" si="28"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1715">
         <f t="shared" si="29"/>
@@ -11624,7 +11623,7 @@
       </c>
       <c r="B1716">
         <f t="shared" si="28"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1716">
         <f t="shared" si="29"/>
@@ -11677,7 +11676,7 @@
     <row r="1721" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1721">
         <f t="shared" si="28"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1721">
         <f t="shared" si="29"/>
@@ -11687,7 +11686,7 @@
     <row r="1722" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1722">
         <f t="shared" si="28"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1722">
         <f t="shared" si="29"/>
@@ -11743,7 +11742,7 @@
     <row r="1727" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1727">
         <f t="shared" si="28"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1727">
         <f t="shared" si="29"/>
@@ -11753,7 +11752,7 @@
     <row r="1728" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1728">
         <f t="shared" si="28"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1728">
         <f t="shared" si="29"/>
@@ -11783,7 +11782,7 @@
     <row r="1731" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1731">
         <f t="shared" si="28"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1731">
         <f t="shared" si="29"/>
@@ -11796,7 +11795,7 @@
       </c>
       <c r="B1732">
         <f t="shared" si="28"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1732">
         <f t="shared" si="29"/>
@@ -11872,7 +11871,7 @@
     <row r="1739" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1739">
         <f t="shared" si="28"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1739">
         <f t="shared" si="29"/>
@@ -11885,7 +11884,7 @@
       </c>
       <c r="B1740">
         <f t="shared" si="28"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1740">
         <f t="shared" si="29"/>
@@ -11914,7 +11913,7 @@
     </row>
     <row r="1743" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1743">
-        <f t="shared" ref="B1743:B1806" si="30">SUM(A1743:A1826)</f>
+        <f t="shared" ref="B1743:B1806" si="30">SUM(A1743:A1828)</f>
         <v>18</v>
       </c>
       <c r="D1743">
@@ -11998,7 +11997,7 @@
     <row r="1751" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1751">
         <f t="shared" si="30"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1751">
         <f t="shared" si="31"/>
@@ -12011,7 +12010,7 @@
       </c>
       <c r="B1752">
         <f t="shared" si="30"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1752">
         <f t="shared" si="31"/>
@@ -12041,7 +12040,7 @@
     <row r="1755" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1755">
         <f t="shared" si="30"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1755">
         <f t="shared" si="31"/>
@@ -12054,7 +12053,7 @@
       </c>
       <c r="B1756">
         <f t="shared" si="30"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1756">
         <f t="shared" si="31"/>
@@ -12127,7 +12126,7 @@
     <row r="1763" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1763">
         <f t="shared" si="30"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1763">
         <f t="shared" si="31"/>
@@ -12140,7 +12139,7 @@
       </c>
       <c r="B1764">
         <f t="shared" si="30"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1764">
         <f t="shared" si="31"/>
@@ -12299,7 +12298,7 @@
     <row r="1779" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1779">
         <f t="shared" si="30"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D1779">
         <f t="shared" si="31"/>
@@ -12312,7 +12311,7 @@
       </c>
       <c r="B1780">
         <f t="shared" si="30"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D1780">
         <f t="shared" si="31"/>
@@ -12320,7 +12319,7 @@
       </c>
     </row>
     <row r="1781" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1781" s="2">
+      <c r="A1781" s="3">
         <v>1</v>
       </c>
       <c r="B1781">
@@ -12333,7 +12332,7 @@
       </c>
     </row>
     <row r="1782" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1782" s="2">
+      <c r="A1782" s="3">
         <v>1</v>
       </c>
       <c r="B1782">
@@ -12346,7 +12345,7 @@
       </c>
     </row>
     <row r="1783" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1783" s="2"/>
+      <c r="A1783" s="3"/>
       <c r="B1783">
         <f t="shared" si="30"/>
         <v>13</v>
@@ -12392,7 +12391,7 @@
     <row r="1787" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1787">
         <f t="shared" si="30"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1787">
         <f t="shared" si="31"/>
@@ -12402,7 +12401,7 @@
     <row r="1788" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1788">
         <f t="shared" si="30"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1788">
         <f t="shared" si="31"/>
@@ -12432,7 +12431,7 @@
     <row r="1791" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1791">
         <f t="shared" si="30"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1791">
         <f t="shared" si="31"/>
@@ -12445,7 +12444,7 @@
       </c>
       <c r="B1792">
         <f t="shared" si="30"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1792">
         <f t="shared" si="31"/>
@@ -12475,7 +12474,7 @@
     <row r="1795" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1795">
         <f t="shared" si="30"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1795">
         <f t="shared" si="31"/>
@@ -12485,7 +12484,7 @@
     <row r="1796" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1796">
         <f t="shared" si="30"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1796">
         <f t="shared" si="31"/>
@@ -12600,7 +12599,7 @@
     </row>
     <row r="1807" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1807">
-        <f t="shared" ref="B1807:B1870" si="32">SUM(A1807:A1890)</f>
+        <f t="shared" ref="B1807:B1870" si="32">SUM(A1807:A1892)</f>
         <v>14</v>
       </c>
       <c r="D1807">
@@ -12684,7 +12683,7 @@
     <row r="1815" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1815">
         <f t="shared" si="32"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1815">
         <f t="shared" si="33"/>
@@ -12697,7 +12696,7 @@
       </c>
       <c r="B1816">
         <f t="shared" si="32"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1816">
         <f t="shared" si="33"/>
@@ -12727,7 +12726,7 @@
     <row r="1819" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1819">
         <f t="shared" si="32"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1819">
         <f t="shared" si="33"/>
@@ -12737,7 +12736,7 @@
     <row r="1820" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1820">
         <f t="shared" si="32"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D1820">
         <f t="shared" si="33"/>
@@ -12810,7 +12809,7 @@
     <row r="1827" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1827">
         <f t="shared" si="32"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D1827">
         <f t="shared" si="33"/>
@@ -12820,7 +12819,7 @@
     <row r="1828" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1828">
         <f t="shared" si="32"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D1828">
         <f t="shared" si="33"/>
@@ -12890,7 +12889,7 @@
     <row r="1835" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1835">
         <f t="shared" si="32"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1835">
         <f t="shared" si="33"/>
@@ -12903,7 +12902,7 @@
       </c>
       <c r="B1836">
         <f t="shared" si="32"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1836">
         <f t="shared" si="33"/>
@@ -12976,7 +12975,7 @@
     <row r="1843" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1843">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1843">
         <f t="shared" si="33"/>
@@ -12986,7 +12985,7 @@
     <row r="1844" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1844">
         <f t="shared" si="32"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1844">
         <f t="shared" si="33"/>
@@ -13059,7 +13058,7 @@
     <row r="1851" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1851">
         <f t="shared" si="32"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1851">
         <f t="shared" si="33"/>
@@ -13069,7 +13068,7 @@
     <row r="1852" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1852">
         <f t="shared" si="32"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1852">
         <f t="shared" si="33"/>
@@ -13139,7 +13138,7 @@
     <row r="1859" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1859">
         <f t="shared" si="32"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1859">
         <f t="shared" si="33"/>
@@ -13149,7 +13148,7 @@
     <row r="1860" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1860">
         <f t="shared" si="32"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1860">
         <f t="shared" si="33"/>
@@ -13261,7 +13260,7 @@
     </row>
     <row r="1871" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1871">
-        <f t="shared" ref="B1871:B1934" si="34">SUM(A1871:A1954)</f>
+        <f t="shared" ref="B1871:B1934" si="34">SUM(A1871:A1956)</f>
         <v>17</v>
       </c>
       <c r="D1871">
@@ -13348,7 +13347,7 @@
     <row r="1879" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1879">
         <f t="shared" si="34"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1879">
         <f t="shared" si="35"/>
@@ -13361,7 +13360,7 @@
       </c>
       <c r="B1880">
         <f t="shared" si="34"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1880">
         <f t="shared" si="35"/>
@@ -13391,7 +13390,7 @@
     <row r="1883" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1883">
         <f t="shared" si="34"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1883">
         <f t="shared" si="35"/>
@@ -13401,7 +13400,7 @@
     <row r="1884" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1884">
         <f t="shared" si="34"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1884">
         <f t="shared" si="35"/>
@@ -13471,7 +13470,7 @@
     <row r="1891" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1891">
         <f t="shared" si="34"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D1891">
         <f t="shared" si="35"/>
@@ -13481,7 +13480,7 @@
     <row r="1892" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1892">
         <f t="shared" si="34"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D1892">
         <f t="shared" si="35"/>
@@ -13551,7 +13550,7 @@
     <row r="1899" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1899">
         <f t="shared" si="34"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1899">
         <f t="shared" si="35"/>
@@ -13564,7 +13563,7 @@
       </c>
       <c r="B1900">
         <f t="shared" si="34"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1900">
         <f t="shared" si="35"/>
@@ -13637,7 +13636,7 @@
     <row r="1907" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1907">
         <f t="shared" si="34"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1907">
         <f t="shared" si="35"/>
@@ -13647,7 +13646,7 @@
     <row r="1908" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1908">
         <f t="shared" si="34"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1908">
         <f t="shared" si="35"/>
@@ -13720,7 +13719,7 @@
     <row r="1915" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1915">
         <f t="shared" si="34"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D1915">
         <f t="shared" si="35"/>
@@ -13730,7 +13729,7 @@
     <row r="1916" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1916">
         <f t="shared" si="34"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D1916">
         <f t="shared" si="35"/>
@@ -13803,7 +13802,7 @@
     <row r="1923" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1923">
         <f t="shared" si="34"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1923">
         <f t="shared" si="35"/>
@@ -13813,7 +13812,7 @@
     <row r="1924" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1924">
         <f t="shared" si="34"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1924">
         <f t="shared" si="35"/>
@@ -13925,7 +13924,7 @@
     </row>
     <row r="1935" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1935">
-        <f t="shared" ref="B1935:B1998" si="36">SUM(A1935:A2018)</f>
+        <f t="shared" ref="B1935:B1998" si="36">SUM(A1935:A2020)</f>
         <v>14</v>
       </c>
       <c r="D1935">
@@ -14009,7 +14008,7 @@
     <row r="1943" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1943">
         <f t="shared" si="36"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1943">
         <f t="shared" si="37"/>
@@ -14022,7 +14021,7 @@
       </c>
       <c r="B1944">
         <f t="shared" si="36"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1944">
         <f t="shared" si="37"/>
@@ -14052,7 +14051,7 @@
     <row r="1947" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1947">
         <f t="shared" si="36"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D1947">
         <f t="shared" si="37"/>
@@ -14062,7 +14061,7 @@
     <row r="1948" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1948">
         <f t="shared" si="36"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D1948">
         <f t="shared" si="37"/>
@@ -14132,7 +14131,7 @@
     <row r="1955" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1955">
         <f t="shared" si="36"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1955">
         <f t="shared" si="37"/>
@@ -14142,7 +14141,7 @@
     <row r="1956" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1956">
         <f t="shared" si="36"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1956">
         <f t="shared" si="37"/>
@@ -14212,7 +14211,7 @@
     <row r="1963" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1963">
         <f t="shared" si="36"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1963">
         <f t="shared" si="37"/>
@@ -14225,7 +14224,7 @@
       </c>
       <c r="B1964">
         <f t="shared" si="36"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D1964">
         <f t="shared" si="37"/>
@@ -14298,7 +14297,7 @@
     <row r="1971" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1971">
         <f t="shared" si="36"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1971">
         <f t="shared" si="37"/>
@@ -14308,7 +14307,7 @@
     <row r="1972" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1972">
         <f t="shared" si="36"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D1972">
         <f t="shared" si="37"/>
@@ -14381,7 +14380,7 @@
     <row r="1979" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1979">
         <f t="shared" si="36"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D1979">
         <f t="shared" si="37"/>
@@ -14391,7 +14390,7 @@
     <row r="1980" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1980">
         <f t="shared" si="36"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D1980">
         <f t="shared" si="37"/>
@@ -14464,7 +14463,7 @@
     <row r="1987" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1987">
         <f t="shared" si="36"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1987">
         <f t="shared" si="37"/>
@@ -14474,7 +14473,7 @@
     <row r="1988" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1988">
         <f t="shared" si="36"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1988">
         <f t="shared" si="37"/>
@@ -14586,7 +14585,7 @@
     </row>
     <row r="1999" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1999">
-        <f t="shared" ref="B1999:B2062" si="38">SUM(A1999:A2082)</f>
+        <f t="shared" ref="B1999:B2062" si="38">SUM(A1999:A2084)</f>
         <v>20</v>
       </c>
       <c r="D1999">
@@ -14670,7 +14669,7 @@
     <row r="2007" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2007">
         <f t="shared" si="38"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2007">
         <f t="shared" si="39"/>
@@ -14683,7 +14682,7 @@
       </c>
       <c r="B2008">
         <f t="shared" si="38"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2008">
         <f t="shared" si="39"/>
@@ -14713,7 +14712,7 @@
     <row r="2011" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2011">
         <f t="shared" si="38"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2011">
         <f t="shared" si="39"/>
@@ -14723,7 +14722,7 @@
     <row r="2012" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2012">
         <f t="shared" si="38"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2012">
         <f t="shared" si="39"/>
@@ -14753,7 +14752,7 @@
     <row r="2015" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2015">
         <f t="shared" si="38"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2015">
         <f t="shared" si="39"/>
@@ -14763,7 +14762,7 @@
     <row r="2016" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2016">
         <f t="shared" si="38"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2016">
         <f t="shared" si="39"/>
@@ -14793,7 +14792,7 @@
     <row r="2019" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2019">
         <f t="shared" si="38"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2019">
         <f t="shared" si="39"/>
@@ -14803,7 +14802,7 @@
     <row r="2020" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2020">
         <f t="shared" si="38"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2020">
         <f t="shared" si="39"/>
@@ -14959,7 +14958,7 @@
     <row r="2035" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2035">
         <f t="shared" si="38"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2035">
         <f t="shared" si="39"/>
@@ -14969,7 +14968,7 @@
     <row r="2036" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2036">
         <f t="shared" si="38"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2036">
         <f t="shared" si="39"/>
@@ -15125,7 +15124,7 @@
     <row r="2051" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2051">
         <f t="shared" si="38"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2051">
         <f t="shared" si="39"/>
@@ -15135,7 +15134,7 @@
     <row r="2052" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2052">
         <f t="shared" si="38"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2052">
         <f t="shared" si="39"/>
@@ -15247,8 +15246,8 @@
     </row>
     <row r="2063" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2063">
-        <f t="shared" ref="B2063:B2126" si="40">SUM(A2063:A2146)</f>
-        <v>16</v>
+        <f t="shared" ref="B2063:B2126" si="40">SUM(A2063:A2148)</f>
+        <v>17</v>
       </c>
       <c r="D2063">
         <f t="shared" ref="D2063:D2126" si="41">SUM(A2063:A2229)</f>
@@ -15261,7 +15260,7 @@
       </c>
       <c r="B2064">
         <f t="shared" si="40"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2064">
         <f t="shared" si="41"/>
@@ -15374,7 +15373,7 @@
     <row r="2075" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2075">
         <f t="shared" si="40"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2075">
         <f t="shared" si="41"/>
@@ -15384,7 +15383,7 @@
     <row r="2076" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2076">
         <f t="shared" si="40"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2076">
         <f t="shared" si="41"/>
@@ -15454,7 +15453,7 @@
     <row r="2083" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2083">
         <f t="shared" si="40"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2083">
         <f t="shared" si="41"/>
@@ -15464,7 +15463,7 @@
     <row r="2084" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2084">
         <f t="shared" si="40"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2084">
         <f t="shared" si="41"/>
@@ -15577,7 +15576,7 @@
     <row r="2095" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2095">
         <f t="shared" si="40"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2095">
         <f t="shared" si="41"/>
@@ -15590,7 +15589,7 @@
       </c>
       <c r="B2096">
         <f t="shared" si="40"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2096">
         <f t="shared" si="41"/>
@@ -15706,7 +15705,7 @@
     <row r="2107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2107">
         <f t="shared" si="40"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2107">
         <f t="shared" si="41"/>
@@ -15716,7 +15715,7 @@
     <row r="2108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2108">
         <f t="shared" si="40"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2108">
         <f t="shared" si="41"/>
@@ -15786,7 +15785,7 @@
     <row r="2115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2115">
         <f t="shared" si="40"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2115">
         <f t="shared" si="41"/>
@@ -15796,7 +15795,7 @@
     <row r="2116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2116">
         <f t="shared" si="40"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2116">
         <f t="shared" si="41"/>
@@ -15908,8 +15907,8 @@
     </row>
     <row r="2127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2127">
-        <f t="shared" ref="B2127:B2190" si="42">SUM(A2127:A2210)</f>
-        <v>9</v>
+        <f t="shared" ref="B2127:B2190" si="42">SUM(A2127:A2212)</f>
+        <v>10</v>
       </c>
       <c r="D2127">
         <f t="shared" ref="D2127:D2177" si="43">SUM(A2127:A2293)</f>
@@ -15919,7 +15918,7 @@
     <row r="2128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2128">
         <f t="shared" si="42"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2128">
         <f t="shared" si="43"/>
@@ -16032,7 +16031,7 @@
     <row r="2139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2139">
         <f t="shared" si="42"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2139">
         <f t="shared" si="43"/>
@@ -16042,7 +16041,7 @@
     <row r="2140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2140">
         <f t="shared" si="42"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2140">
         <f t="shared" si="43"/>
@@ -16112,7 +16111,7 @@
     <row r="2147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2147">
         <f t="shared" si="42"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2147">
         <f t="shared" si="43"/>
@@ -16125,7 +16124,7 @@
       </c>
       <c r="B2148">
         <f t="shared" si="42"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2148">
         <f t="shared" si="43"/>
@@ -16235,7 +16234,7 @@
     <row r="2159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2159">
         <f t="shared" si="42"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2159">
         <f t="shared" si="43"/>
@@ -16248,7 +16247,7 @@
       </c>
       <c r="B2160">
         <f t="shared" si="42"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2160">
         <f t="shared" si="43"/>
@@ -16361,7 +16360,7 @@
     <row r="2171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2171">
         <f t="shared" si="42"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2171">
         <f t="shared" si="43"/>
@@ -16371,7 +16370,7 @@
     <row r="2172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2172">
         <f t="shared" si="42"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2172">
         <f t="shared" si="43"/>
@@ -16445,7 +16444,7 @@
     <row r="2179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2179">
         <f t="shared" si="42"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2179">
         <f t="shared" ref="F2179:F2242" si="44">SUM(A2179:A2428)</f>
@@ -16458,7 +16457,7 @@
       </c>
       <c r="B2180">
         <f t="shared" si="42"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2180">
         <f t="shared" si="44"/>
@@ -16508,7 +16507,7 @@
     <row r="2185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2185">
         <f t="shared" si="42"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2185">
         <f t="shared" si="44"/>
@@ -16518,7 +16517,7 @@
     <row r="2186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2186">
         <f t="shared" si="42"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2186">
         <f t="shared" si="44"/>
@@ -16528,7 +16527,7 @@
     <row r="2187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2187">
         <f t="shared" si="42"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2187">
         <f t="shared" si="44"/>
@@ -16538,7 +16537,7 @@
     <row r="2188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2188">
         <f t="shared" si="42"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2188">
         <f t="shared" si="44"/>
@@ -16567,7 +16566,7 @@
     </row>
     <row r="2191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2191">
-        <f t="shared" ref="B2191:B2254" si="45">SUM(A2191:A2274)</f>
+        <f t="shared" ref="B2191:B2254" si="45">SUM(A2191:A2276)</f>
         <v>14</v>
       </c>
       <c r="F2191">
@@ -16734,7 +16733,7 @@
     <row r="2207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2207">
         <f t="shared" si="45"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2207">
         <f t="shared" si="44"/>
@@ -16744,7 +16743,7 @@
     <row r="2208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2208">
         <f t="shared" si="45"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2208">
         <f t="shared" si="44"/>
@@ -16754,7 +16753,7 @@
     <row r="2209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2209">
         <f t="shared" si="45"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2209">
         <f t="shared" si="44"/>
@@ -16764,7 +16763,7 @@
     <row r="2210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2210">
         <f t="shared" si="45"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2210">
         <f t="shared" si="44"/>
@@ -16774,7 +16773,7 @@
     <row r="2211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2211">
         <f t="shared" si="45"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2211">
         <f t="shared" si="44"/>
@@ -16787,7 +16786,7 @@
       </c>
       <c r="B2212">
         <f t="shared" si="45"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2212">
         <f t="shared" si="44"/>
@@ -16797,7 +16796,7 @@
     <row r="2213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2213">
         <f t="shared" si="45"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2213">
         <f t="shared" si="44"/>
@@ -16807,7 +16806,7 @@
     <row r="2214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2214">
         <f t="shared" si="45"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2214">
         <f t="shared" si="44"/>
@@ -16817,7 +16816,7 @@
     <row r="2215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2215">
         <f t="shared" si="45"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2215">
         <f t="shared" si="44"/>
@@ -16827,7 +16826,7 @@
     <row r="2216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2216">
         <f t="shared" si="45"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2216">
         <f t="shared" si="44"/>
@@ -16857,7 +16856,7 @@
     <row r="2219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2219">
         <f t="shared" si="45"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2219">
         <f t="shared" si="44"/>
@@ -16867,7 +16866,7 @@
     <row r="2220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2220">
         <f t="shared" si="45"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2220">
         <f t="shared" si="44"/>
@@ -16877,7 +16876,7 @@
     <row r="2221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2221">
         <f t="shared" si="45"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2221">
         <f t="shared" si="44"/>
@@ -16887,7 +16886,7 @@
     <row r="2222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2222">
         <f t="shared" si="45"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2222">
         <f t="shared" si="44"/>
@@ -16897,7 +16896,7 @@
     <row r="2223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2223">
         <f t="shared" si="45"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2223">
         <f t="shared" si="44"/>
@@ -16910,7 +16909,7 @@
       </c>
       <c r="B2224">
         <f t="shared" si="45"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2224">
         <f t="shared" si="44"/>
@@ -16920,7 +16919,7 @@
     <row r="2225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2225">
         <f t="shared" si="45"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2225">
         <f t="shared" si="44"/>
@@ -16930,7 +16929,7 @@
     <row r="2226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2226">
         <f t="shared" si="45"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2226">
         <f t="shared" si="44"/>
@@ -16940,7 +16939,7 @@
     <row r="2227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2227">
         <f t="shared" si="45"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2227">
         <f t="shared" si="44"/>
@@ -16950,7 +16949,7 @@
     <row r="2228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2228">
         <f t="shared" si="45"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2228">
         <f t="shared" si="44"/>
@@ -16960,7 +16959,7 @@
     <row r="2229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2229">
         <f t="shared" si="45"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2229">
         <f t="shared" si="44"/>
@@ -16970,7 +16969,7 @@
     <row r="2230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2230">
         <f t="shared" si="45"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2230">
         <f t="shared" si="44"/>
@@ -16980,7 +16979,7 @@
     <row r="2231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2231">
         <f t="shared" si="45"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2231">
         <f t="shared" si="44"/>
@@ -16993,7 +16992,7 @@
       </c>
       <c r="B2232">
         <f t="shared" si="45"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2232">
         <f t="shared" si="44"/>
@@ -17023,7 +17022,7 @@
     <row r="2235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2235">
         <f t="shared" si="45"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2235">
         <f t="shared" si="44"/>
@@ -17033,7 +17032,7 @@
     <row r="2236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2236">
         <f t="shared" si="45"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2236">
         <f t="shared" si="44"/>
@@ -17043,7 +17042,7 @@
     <row r="2237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2237">
         <f t="shared" si="45"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2237">
         <f t="shared" si="44"/>
@@ -17053,7 +17052,7 @@
     <row r="2238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2238">
         <f t="shared" si="45"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2238">
         <f t="shared" si="44"/>
@@ -17083,7 +17082,7 @@
     <row r="2241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2241">
         <f t="shared" si="45"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2241">
         <f t="shared" si="44"/>
@@ -17093,7 +17092,7 @@
     <row r="2242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2242">
         <f t="shared" si="45"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2242">
         <f t="shared" si="44"/>
@@ -17103,7 +17102,7 @@
     <row r="2243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2243">
         <f t="shared" si="45"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2243">
         <f t="shared" ref="F2243:F2260" si="46">SUM(A2243:A2492)</f>
@@ -17114,9 +17113,9 @@
       <c r="A2244">
         <v>2</v>
       </c>
-      <c r="B2244" s="3">
+      <c r="B2244">
         <f t="shared" si="45"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2244">
         <f t="shared" si="46"/>
@@ -17225,7 +17224,7 @@
     </row>
     <row r="2255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2255">
-        <f t="shared" ref="B2255:B2318" si="47">SUM(A2255:A2338)</f>
+        <f t="shared" ref="B2255:B2318" si="47">SUM(A2255:A2340)</f>
         <v>23</v>
       </c>
       <c r="F2255">
@@ -17298,7 +17297,7 @@
         <v>21</v>
       </c>
       <c r="D2262">
-        <f>SUM(A2262:A2428)</f>
+        <f>SUM(A2262:A2431)</f>
         <v>31</v>
       </c>
       <c r="E2262">
@@ -17312,8 +17311,8 @@
         <v>21</v>
       </c>
       <c r="D2263">
-        <f t="shared" ref="D2263:D2326" si="48">SUM(A2263:A2429)</f>
-        <v>31</v>
+        <f t="shared" ref="D2263:D2326" si="48">SUM(A2263:A2432)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="2264" spans="1:6" x14ac:dyDescent="0.35">
@@ -17326,7 +17325,7 @@
       </c>
       <c r="D2264">
         <f t="shared" si="48"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2265" spans="1:6" x14ac:dyDescent="0.35">
@@ -17336,7 +17335,7 @@
       </c>
       <c r="D2265">
         <f t="shared" si="48"/>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2266" spans="1:6" x14ac:dyDescent="0.35">
@@ -17346,7 +17345,7 @@
       </c>
       <c r="D2266">
         <f t="shared" si="48"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2267" spans="1:6" x14ac:dyDescent="0.35">
@@ -17356,7 +17355,7 @@
       </c>
       <c r="D2267">
         <f t="shared" si="48"/>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2268" spans="1:6" x14ac:dyDescent="0.35">
@@ -17366,7 +17365,7 @@
       </c>
       <c r="D2268">
         <f t="shared" si="48"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2269" spans="1:6" x14ac:dyDescent="0.35">
@@ -17376,7 +17375,7 @@
       </c>
       <c r="D2269">
         <f t="shared" si="48"/>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2270" spans="1:6" x14ac:dyDescent="0.35">
@@ -17389,18 +17388,18 @@
       </c>
       <c r="D2270">
         <f t="shared" si="48"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2271" s="1"/>
       <c r="B2271">
         <f t="shared" si="47"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2271">
         <f t="shared" si="48"/>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2272" spans="1:6" x14ac:dyDescent="0.35">
@@ -17409,55 +17408,55 @@
       </c>
       <c r="B2272">
         <f t="shared" si="47"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2272">
         <f t="shared" si="48"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2273" s="1"/>
       <c r="B2273">
         <f t="shared" si="47"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2273">
         <f t="shared" si="48"/>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2274" s="1"/>
       <c r="B2274">
         <f t="shared" si="47"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2274">
         <f t="shared" si="48"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2275" s="1"/>
       <c r="B2275">
         <f t="shared" si="47"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2275">
         <f t="shared" si="48"/>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2276" s="1"/>
       <c r="B2276">
         <f t="shared" si="47"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2276">
         <f t="shared" si="48"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2277" spans="1:4" x14ac:dyDescent="0.35">
@@ -17468,7 +17467,7 @@
       </c>
       <c r="D2277">
         <f t="shared" si="48"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2278" spans="1:4" x14ac:dyDescent="0.35">
@@ -17490,7 +17489,7 @@
       </c>
       <c r="D2279">
         <f t="shared" si="48"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2280" spans="1:4" x14ac:dyDescent="0.35">
@@ -17501,7 +17500,7 @@
       </c>
       <c r="D2280">
         <f t="shared" si="48"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2281" spans="1:4" x14ac:dyDescent="0.35">
@@ -17512,7 +17511,7 @@
       </c>
       <c r="D2281">
         <f t="shared" si="48"/>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2282" spans="1:4" x14ac:dyDescent="0.35">
@@ -17523,7 +17522,7 @@
       </c>
       <c r="D2282">
         <f t="shared" si="48"/>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2283" spans="1:4" x14ac:dyDescent="0.35">
@@ -17534,7 +17533,7 @@
       </c>
       <c r="D2283">
         <f t="shared" si="48"/>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2284" spans="1:4" x14ac:dyDescent="0.35">
@@ -17578,7 +17577,7 @@
       </c>
       <c r="D2287">
         <f t="shared" si="48"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2288" spans="1:4" x14ac:dyDescent="0.35">
@@ -17589,7 +17588,7 @@
       </c>
       <c r="D2288">
         <f t="shared" si="48"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2289" spans="1:4" x14ac:dyDescent="0.35">
@@ -17600,7 +17599,7 @@
       </c>
       <c r="D2289">
         <f t="shared" si="48"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2290" spans="1:4" x14ac:dyDescent="0.35">
@@ -17618,7 +17617,7 @@
       <c r="A2291" s="1"/>
       <c r="B2291">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2291">
         <f t="shared" si="48"/>
@@ -17631,7 +17630,7 @@
       </c>
       <c r="B2292">
         <f t="shared" si="47"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2292">
         <f t="shared" si="48"/>
@@ -17808,7 +17807,7 @@
       <c r="A2307" s="1"/>
       <c r="B2307">
         <f t="shared" si="47"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2307">
         <f t="shared" si="48"/>
@@ -17821,7 +17820,7 @@
       </c>
       <c r="B2308">
         <f t="shared" si="47"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2308">
         <f t="shared" si="48"/>
@@ -17908,7 +17907,7 @@
       </c>
       <c r="D2315">
         <f t="shared" si="48"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2316" spans="1:4" x14ac:dyDescent="0.35">
@@ -17921,7 +17920,7 @@
       </c>
       <c r="D2316">
         <f t="shared" si="48"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2317" spans="1:4" x14ac:dyDescent="0.35">
@@ -17932,7 +17931,7 @@
       </c>
       <c r="D2317">
         <f t="shared" si="48"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2318" spans="1:4" x14ac:dyDescent="0.35">
@@ -17949,12 +17948,12 @@
     <row r="2319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2319" s="1"/>
       <c r="B2319">
-        <f t="shared" ref="B2319:B2382" si="49">SUM(A2319:A2402)</f>
+        <f t="shared" ref="B2319:B2382" si="49">SUM(A2319:A2404)</f>
         <v>9</v>
       </c>
       <c r="D2319">
         <f t="shared" si="48"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2320" spans="1:4" x14ac:dyDescent="0.35">
@@ -17967,7 +17966,7 @@
       </c>
       <c r="D2320">
         <f t="shared" si="48"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2321" spans="1:4" x14ac:dyDescent="0.35">
@@ -17978,7 +17977,7 @@
       </c>
       <c r="D2321">
         <f t="shared" si="48"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2322" spans="1:4" x14ac:dyDescent="0.35">
@@ -18047,7 +18046,7 @@
         <v>6</v>
       </c>
       <c r="D2327">
-        <f t="shared" ref="D2327:D2390" si="50">SUM(A2327:A2493)</f>
+        <f t="shared" ref="D2327:D2390" si="50">SUM(A2327:A2496)</f>
         <v>23</v>
       </c>
     </row>
@@ -18134,7 +18133,7 @@
       <c r="A2335" s="1"/>
       <c r="B2335">
         <f t="shared" si="49"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2335">
         <f t="shared" si="50"/>
@@ -18145,7 +18144,7 @@
       <c r="A2336" s="1"/>
       <c r="B2336">
         <f t="shared" si="49"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2336">
         <f t="shared" si="50"/>
@@ -18156,7 +18155,7 @@
       <c r="A2337" s="1"/>
       <c r="B2337">
         <f t="shared" si="49"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2337">
         <f t="shared" si="50"/>
@@ -18167,7 +18166,7 @@
       <c r="A2338" s="1"/>
       <c r="B2338">
         <f t="shared" si="49"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2338">
         <f t="shared" si="50"/>
@@ -18178,7 +18177,7 @@
       <c r="A2339" s="1"/>
       <c r="B2339">
         <f t="shared" si="49"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2339">
         <f t="shared" si="50"/>
@@ -18189,7 +18188,7 @@
       <c r="A2340" s="1"/>
       <c r="B2340">
         <f t="shared" si="49"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2340">
         <f t="shared" si="50"/>
@@ -18200,7 +18199,7 @@
       <c r="A2341" s="1"/>
       <c r="B2341">
         <f t="shared" si="49"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2341">
         <f t="shared" si="50"/>
@@ -18211,7 +18210,7 @@
       <c r="A2342" s="1"/>
       <c r="B2342">
         <f t="shared" si="49"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2342">
         <f t="shared" si="50"/>
@@ -18222,7 +18221,7 @@
       <c r="A2343" s="1"/>
       <c r="B2343">
         <f t="shared" si="49"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2343">
         <f t="shared" si="50"/>
@@ -18233,7 +18232,7 @@
       <c r="A2344" s="1"/>
       <c r="B2344">
         <f t="shared" si="49"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2344">
         <f t="shared" si="50"/>
@@ -18263,37 +18262,37 @@
     <row r="2347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2347">
         <f t="shared" si="49"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2347">
         <f t="shared" si="50"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2348">
         <f t="shared" si="49"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2348">
         <f t="shared" si="50"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2349">
         <f t="shared" si="49"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2349">
         <f t="shared" si="50"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2350">
         <f t="shared" si="49"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2350">
         <f t="shared" si="50"/>
@@ -18303,37 +18302,37 @@
     <row r="2351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2351">
         <f t="shared" si="49"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2351">
         <f t="shared" si="50"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2352">
         <f t="shared" si="49"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2352">
         <f t="shared" si="50"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2353">
         <f t="shared" si="49"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2353">
         <f t="shared" si="50"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2354">
         <f t="shared" si="49"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2354">
         <f t="shared" si="50"/>
@@ -18343,7 +18342,7 @@
     <row r="2355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2355">
         <f t="shared" si="49"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2355">
         <f t="shared" si="50"/>
@@ -18356,11 +18355,11 @@
       </c>
       <c r="B2356">
         <f t="shared" si="49"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2356">
         <f>MAX(B2356:B2758)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2356">
         <f t="shared" si="50"/>
@@ -18370,7 +18369,7 @@
     <row r="2357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2357">
         <f t="shared" si="49"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2357">
         <f t="shared" si="50"/>
@@ -18383,7 +18382,7 @@
       </c>
       <c r="B2358">
         <f t="shared" si="49"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2358">
         <f t="shared" si="50"/>
@@ -18393,7 +18392,7 @@
     <row r="2359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2359">
         <f t="shared" si="49"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2359">
         <f t="shared" si="50"/>
@@ -18406,7 +18405,7 @@
       </c>
       <c r="B2360">
         <f t="shared" si="49"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2360">
         <f t="shared" si="50"/>
@@ -18436,37 +18435,37 @@
     <row r="2363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2363">
         <f t="shared" si="49"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2363">
         <f t="shared" si="50"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2364">
         <f t="shared" si="49"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2364">
         <f t="shared" si="50"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2365">
         <f t="shared" si="49"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2365">
         <f t="shared" si="50"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2366">
         <f t="shared" si="49"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2366">
         <f t="shared" si="50"/>
@@ -18516,7 +18515,7 @@
     <row r="2371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2371">
         <f t="shared" si="49"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2371">
         <f t="shared" si="50"/>
@@ -18526,7 +18525,7 @@
     <row r="2372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2372">
         <f t="shared" si="49"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2372">
         <f t="shared" si="50"/>
@@ -18560,7 +18559,7 @@
       </c>
       <c r="D2375">
         <f t="shared" si="50"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2376" spans="1:4" x14ac:dyDescent="0.35">
@@ -18573,7 +18572,7 @@
       </c>
       <c r="D2376">
         <f t="shared" si="50"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2377" spans="1:4" x14ac:dyDescent="0.35">
@@ -18583,7 +18582,7 @@
       </c>
       <c r="D2377">
         <f t="shared" si="50"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2378" spans="1:4" x14ac:dyDescent="0.35">
@@ -18638,12 +18637,12 @@
     </row>
     <row r="2383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2383">
-        <f t="shared" ref="B2383:B2446" si="51">SUM(A2383:A2466)</f>
+        <f t="shared" ref="B2383:B2446" si="51">SUM(A2383:A2468)</f>
         <v>16</v>
       </c>
       <c r="D2383">
         <f t="shared" si="50"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2384" spans="1:4" x14ac:dyDescent="0.35">
@@ -18653,7 +18652,7 @@
       </c>
       <c r="D2384">
         <f t="shared" si="50"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2385" spans="1:4" x14ac:dyDescent="0.35">
@@ -18663,7 +18662,7 @@
       </c>
       <c r="D2385">
         <f t="shared" si="50"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2386" spans="1:4" x14ac:dyDescent="0.35">
@@ -18722,7 +18721,7 @@
         <v>16</v>
       </c>
       <c r="D2391">
-        <f t="shared" ref="D2391:D2454" si="52">SUM(A2391:A2557)</f>
+        <f t="shared" ref="D2391:D2454" si="52">SUM(A2391:A2560)</f>
         <v>25</v>
       </c>
     </row>
@@ -18766,7 +18765,7 @@
       </c>
       <c r="D2395">
         <f t="shared" si="52"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2396" spans="1:4" x14ac:dyDescent="0.35">
@@ -18776,7 +18775,7 @@
       </c>
       <c r="D2396">
         <f t="shared" si="52"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2397" spans="1:4" x14ac:dyDescent="0.35">
@@ -18786,7 +18785,7 @@
       </c>
       <c r="D2397">
         <f t="shared" si="52"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2398" spans="1:4" x14ac:dyDescent="0.35">
@@ -18802,7 +18801,7 @@
     <row r="2399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2399">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2399">
         <f t="shared" si="52"/>
@@ -18812,7 +18811,7 @@
     <row r="2400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2400">
         <f t="shared" si="51"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2400">
         <f t="shared" si="52"/>
@@ -18842,7 +18841,7 @@
     <row r="2403" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2403">
         <f t="shared" si="51"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2403">
         <f t="shared" si="52"/>
@@ -18852,7 +18851,7 @@
     <row r="2404" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2404">
         <f t="shared" si="51"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2404">
         <f t="shared" si="52"/>
@@ -18886,7 +18885,7 @@
       </c>
       <c r="D2407">
         <f t="shared" si="52"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2408" spans="2:4" x14ac:dyDescent="0.35">
@@ -18896,7 +18895,7 @@
       </c>
       <c r="D2408">
         <f t="shared" si="52"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2409" spans="2:4" x14ac:dyDescent="0.35">
@@ -18906,7 +18905,7 @@
       </c>
       <c r="D2409">
         <f t="shared" si="52"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2410" spans="2:4" x14ac:dyDescent="0.35">
@@ -18966,7 +18965,7 @@
       </c>
       <c r="D2415">
         <f t="shared" si="52"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2416" spans="2:4" x14ac:dyDescent="0.35">
@@ -18976,7 +18975,7 @@
       </c>
       <c r="D2416">
         <f t="shared" si="52"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2417" spans="1:4" x14ac:dyDescent="0.35">
@@ -18986,7 +18985,7 @@
       </c>
       <c r="D2417">
         <f t="shared" si="52"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2418" spans="1:4" x14ac:dyDescent="0.35">
@@ -19098,7 +19097,7 @@
       </c>
       <c r="D2427">
         <f t="shared" si="52"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2428" spans="1:4" x14ac:dyDescent="0.35">
@@ -19111,7 +19110,7 @@
       </c>
       <c r="D2428">
         <f t="shared" si="52"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2429" spans="1:4" x14ac:dyDescent="0.35">
@@ -19121,7 +19120,7 @@
       </c>
       <c r="D2429">
         <f t="shared" si="52"/>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2430" spans="1:4" x14ac:dyDescent="0.35">
@@ -19137,7 +19136,7 @@
     <row r="2431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2431">
         <f t="shared" si="51"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2431">
         <f t="shared" si="52"/>
@@ -19150,7 +19149,7 @@
       </c>
       <c r="B2432">
         <f t="shared" si="51"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2432">
         <f t="shared" si="52"/>
@@ -19183,7 +19182,7 @@
     <row r="2435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2435">
         <f t="shared" si="51"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2435">
         <f t="shared" si="52"/>
@@ -19196,7 +19195,7 @@
       </c>
       <c r="B2436">
         <f t="shared" si="51"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2436">
         <f t="shared" si="52"/>
@@ -19233,7 +19232,7 @@
       </c>
       <c r="D2439">
         <f t="shared" si="52"/>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2440" spans="1:4" x14ac:dyDescent="0.35">
@@ -19246,7 +19245,7 @@
       </c>
       <c r="D2440">
         <f t="shared" si="52"/>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2441" spans="1:4" x14ac:dyDescent="0.35">
@@ -19256,7 +19255,7 @@
       </c>
       <c r="D2441">
         <f t="shared" si="52"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2442" spans="1:4" x14ac:dyDescent="0.35">
@@ -19317,12 +19316,12 @@
     </row>
     <row r="2447" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2447">
-        <f t="shared" ref="B2447:B2510" si="53">SUM(A2447:A2530)</f>
-        <v>8</v>
+        <f t="shared" ref="B2447:B2510" si="53">SUM(A2447:A2532)</f>
+        <v>9</v>
       </c>
       <c r="D2447">
         <f t="shared" si="52"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2448" spans="1:4" x14ac:dyDescent="0.35">
@@ -19331,11 +19330,11 @@
       </c>
       <c r="B2448">
         <f t="shared" si="53"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2448">
         <f t="shared" si="52"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2449" spans="1:4" x14ac:dyDescent="0.35">
@@ -19345,7 +19344,7 @@
       </c>
       <c r="D2449">
         <f t="shared" si="52"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2450" spans="1:4" x14ac:dyDescent="0.35">
@@ -19407,7 +19406,7 @@
         <v>7</v>
       </c>
       <c r="D2455">
-        <f t="shared" ref="D2455:D2518" si="54">SUM(A2455:A2621)</f>
+        <f t="shared" ref="D2455:D2518" si="54">SUM(A2455:A2624)</f>
         <v>19</v>
       </c>
     </row>
@@ -19447,21 +19446,21 @@
     <row r="2459" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2459">
         <f t="shared" si="53"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2459">
         <f t="shared" si="54"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2460" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2460">
         <f t="shared" si="53"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2460">
         <f t="shared" si="54"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2461" spans="1:4" x14ac:dyDescent="0.35">
@@ -19471,7 +19470,7 @@
       </c>
       <c r="D2461">
         <f t="shared" si="54"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2462" spans="1:4" x14ac:dyDescent="0.35">
@@ -19527,7 +19526,7 @@
     <row r="2467" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2467">
         <f t="shared" si="53"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2467">
         <f t="shared" si="54"/>
@@ -19537,7 +19536,7 @@
     <row r="2468" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2468">
         <f t="shared" si="53"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2468">
         <f t="shared" si="54"/>
@@ -19571,7 +19570,7 @@
       </c>
       <c r="D2471">
         <f t="shared" si="54"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2472" spans="2:4" x14ac:dyDescent="0.35">
@@ -19581,7 +19580,7 @@
       </c>
       <c r="D2472">
         <f t="shared" si="54"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2473" spans="2:4" x14ac:dyDescent="0.35">
@@ -19591,7 +19590,7 @@
       </c>
       <c r="D2473">
         <f t="shared" si="54"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2474" spans="2:4" x14ac:dyDescent="0.35">
@@ -19647,21 +19646,21 @@
     <row r="2479" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2479">
         <f t="shared" si="53"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2479">
         <f t="shared" si="54"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2480" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2480">
         <f t="shared" si="53"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2480">
         <f t="shared" si="54"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2481" spans="1:4" x14ac:dyDescent="0.35">
@@ -19671,7 +19670,7 @@
       </c>
       <c r="D2481">
         <f t="shared" si="54"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2482" spans="1:4" x14ac:dyDescent="0.35">
@@ -19714,7 +19713,7 @@
       </c>
       <c r="D2485">
         <f t="shared" si="54"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2486" spans="1:4" x14ac:dyDescent="0.35">
@@ -19724,7 +19723,7 @@
       </c>
       <c r="D2486">
         <f t="shared" si="54"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2487" spans="1:4" x14ac:dyDescent="0.35">
@@ -19734,7 +19733,7 @@
       </c>
       <c r="D2487">
         <f t="shared" si="54"/>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2488" spans="1:4" x14ac:dyDescent="0.35">
@@ -19747,7 +19746,7 @@
       </c>
       <c r="D2488">
         <f t="shared" si="54"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2489" spans="1:4" x14ac:dyDescent="0.35">
@@ -19757,7 +19756,7 @@
       </c>
       <c r="D2489">
         <f t="shared" si="54"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2490" spans="1:4" x14ac:dyDescent="0.35">
@@ -19773,7 +19772,7 @@
     <row r="2491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2491">
         <f t="shared" si="53"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2491">
         <f t="shared" si="54"/>
@@ -19783,7 +19782,7 @@
     <row r="2492" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2492">
         <f t="shared" si="53"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2492">
         <f t="shared" si="54"/>
@@ -19853,7 +19852,7 @@
     <row r="2499" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2499">
         <f t="shared" si="53"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2499">
         <f t="shared" si="54"/>
@@ -19863,7 +19862,7 @@
     <row r="2500" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2500">
         <f t="shared" si="53"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2500">
         <f t="shared" si="54"/>
@@ -19937,7 +19936,7 @@
       </c>
       <c r="D2507">
         <f t="shared" si="54"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2508" spans="2:4" x14ac:dyDescent="0.35">
@@ -19947,7 +19946,7 @@
       </c>
       <c r="D2508">
         <f t="shared" si="54"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2509" spans="2:4" x14ac:dyDescent="0.35">
@@ -19957,7 +19956,7 @@
       </c>
       <c r="D2509">
         <f t="shared" si="54"/>
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2510" spans="2:4" x14ac:dyDescent="0.35">
@@ -19967,27 +19966,27 @@
       </c>
       <c r="D2510">
         <f t="shared" si="54"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2511" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2511">
-        <f t="shared" ref="B2511:B2574" si="55">SUM(A2511:A2594)</f>
-        <v>10</v>
+        <f t="shared" ref="B2511:B2574" si="55">SUM(A2511:A2596)</f>
+        <v>12</v>
       </c>
       <c r="D2511">
         <f t="shared" si="54"/>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2512" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2512">
         <f t="shared" si="55"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2512">
         <f t="shared" si="54"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2513" spans="1:4" x14ac:dyDescent="0.35">
@@ -19997,7 +19996,7 @@
       </c>
       <c r="D2513">
         <f t="shared" si="54"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2514" spans="1:4" x14ac:dyDescent="0.35">
@@ -20007,7 +20006,7 @@
       </c>
       <c r="D2514">
         <f t="shared" si="54"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2515" spans="1:4" x14ac:dyDescent="0.35">
@@ -20017,7 +20016,7 @@
       </c>
       <c r="D2515">
         <f t="shared" si="54"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2516" spans="1:4" x14ac:dyDescent="0.35">
@@ -20030,7 +20029,7 @@
       </c>
       <c r="D2516">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2517" spans="1:4" x14ac:dyDescent="0.35">
@@ -20040,7 +20039,7 @@
       </c>
       <c r="D2517">
         <f t="shared" si="54"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2518" spans="1:4" x14ac:dyDescent="0.35">
@@ -20050,7 +20049,7 @@
       </c>
       <c r="D2518">
         <f t="shared" si="54"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2519" spans="1:4" x14ac:dyDescent="0.35">
@@ -20059,8 +20058,8 @@
         <v>11</v>
       </c>
       <c r="D2519">
-        <f t="shared" ref="D2519:D2582" si="56">SUM(A2519:A2685)</f>
-        <v>25</v>
+        <f t="shared" ref="D2519:D2582" si="56">SUM(A2519:A2688)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="2520" spans="1:4" x14ac:dyDescent="0.35">
@@ -20073,7 +20072,7 @@
       </c>
       <c r="D2520">
         <f t="shared" si="56"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2521" spans="1:4" x14ac:dyDescent="0.35">
@@ -20083,7 +20082,7 @@
       </c>
       <c r="D2521">
         <f t="shared" si="56"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2522" spans="1:4" x14ac:dyDescent="0.35">
@@ -20093,27 +20092,27 @@
       </c>
       <c r="D2522">
         <f t="shared" si="56"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2523" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2523">
         <f t="shared" si="55"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2523">
         <f t="shared" si="56"/>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2524">
         <f t="shared" si="55"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2524">
         <f t="shared" si="56"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2525" spans="1:4" x14ac:dyDescent="0.35">
@@ -20123,7 +20122,7 @@
       </c>
       <c r="D2525">
         <f t="shared" si="56"/>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2526" spans="1:4" x14ac:dyDescent="0.35">
@@ -20133,7 +20132,7 @@
       </c>
       <c r="D2526">
         <f t="shared" si="56"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2527" spans="1:4" x14ac:dyDescent="0.35">
@@ -20143,7 +20142,7 @@
       </c>
       <c r="D2527">
         <f t="shared" si="56"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2528" spans="1:4" x14ac:dyDescent="0.35">
@@ -20153,7 +20152,7 @@
       </c>
       <c r="D2528">
         <f t="shared" si="56"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2529" spans="1:4" x14ac:dyDescent="0.35">
@@ -20163,7 +20162,7 @@
       </c>
       <c r="D2529">
         <f t="shared" si="56"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2530" spans="1:4" x14ac:dyDescent="0.35">
@@ -20173,17 +20172,17 @@
       </c>
       <c r="D2530">
         <f t="shared" si="56"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2531" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2531">
         <f t="shared" si="55"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2531">
         <f t="shared" si="56"/>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2532" spans="1:4" x14ac:dyDescent="0.35">
@@ -20192,11 +20191,11 @@
       </c>
       <c r="B2532">
         <f t="shared" si="55"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2532">
         <f t="shared" si="56"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2533" spans="1:4" x14ac:dyDescent="0.35">
@@ -20206,7 +20205,7 @@
       </c>
       <c r="D2533">
         <f t="shared" si="56"/>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2534" spans="1:4" x14ac:dyDescent="0.35">
@@ -20216,7 +20215,7 @@
       </c>
       <c r="D2534">
         <f t="shared" si="56"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2535" spans="1:4" x14ac:dyDescent="0.35">
@@ -20226,7 +20225,7 @@
       </c>
       <c r="D2535">
         <f t="shared" si="56"/>
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2536" spans="1:4" x14ac:dyDescent="0.35">
@@ -20236,7 +20235,7 @@
       </c>
       <c r="D2536">
         <f t="shared" si="56"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2537" spans="1:4" x14ac:dyDescent="0.35">
@@ -20246,7 +20245,7 @@
       </c>
       <c r="D2537">
         <f t="shared" si="56"/>
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2538" spans="1:4" x14ac:dyDescent="0.35">
@@ -20256,7 +20255,7 @@
       </c>
       <c r="D2538">
         <f t="shared" si="56"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2539" spans="1:4" x14ac:dyDescent="0.35">
@@ -20266,7 +20265,7 @@
       </c>
       <c r="D2539">
         <f t="shared" si="56"/>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2540" spans="1:4" x14ac:dyDescent="0.35">
@@ -20276,7 +20275,7 @@
       </c>
       <c r="D2540">
         <f t="shared" si="56"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2541" spans="1:4" x14ac:dyDescent="0.35">
@@ -20286,7 +20285,7 @@
       </c>
       <c r="D2541">
         <f t="shared" si="56"/>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2542" spans="1:4" x14ac:dyDescent="0.35">
@@ -20296,17 +20295,17 @@
       </c>
       <c r="D2542">
         <f t="shared" si="56"/>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2543" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2543">
         <f t="shared" si="55"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2543">
         <f t="shared" si="56"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2544" spans="1:4" x14ac:dyDescent="0.35">
@@ -20315,11 +20314,11 @@
       </c>
       <c r="B2544">
         <f t="shared" si="55"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2544">
         <f t="shared" si="56"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2545" spans="1:4" x14ac:dyDescent="0.35">
@@ -20329,7 +20328,7 @@
       </c>
       <c r="D2545">
         <f t="shared" si="56"/>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2546" spans="1:4" x14ac:dyDescent="0.35">
@@ -20428,21 +20427,21 @@
     <row r="2555" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2555">
         <f t="shared" si="55"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2555">
         <f t="shared" si="56"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2556" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2556">
         <f t="shared" si="55"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2556">
         <f t="shared" si="56"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2557" spans="1:4" x14ac:dyDescent="0.35">
@@ -20452,7 +20451,7 @@
       </c>
       <c r="D2557">
         <f t="shared" si="56"/>
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2558" spans="1:4" x14ac:dyDescent="0.35">
@@ -20462,7 +20461,7 @@
       </c>
       <c r="D2558">
         <f t="shared" si="56"/>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2559" spans="1:4" x14ac:dyDescent="0.35">
@@ -20472,7 +20471,7 @@
       </c>
       <c r="D2559">
         <f t="shared" si="56"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2560" spans="1:4" x14ac:dyDescent="0.35">
@@ -20482,7 +20481,7 @@
       </c>
       <c r="D2560">
         <f t="shared" si="56"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2561" spans="1:4" x14ac:dyDescent="0.35">
@@ -20492,7 +20491,7 @@
       </c>
       <c r="D2561">
         <f t="shared" si="56"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2562" spans="1:4" x14ac:dyDescent="0.35">
@@ -20508,7 +20507,7 @@
     <row r="2563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2563">
         <f t="shared" si="55"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2563">
         <f t="shared" si="56"/>
@@ -20521,7 +20520,7 @@
       </c>
       <c r="B2564">
         <f t="shared" si="55"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2564">
         <f t="shared" si="56"/>
@@ -20555,7 +20554,7 @@
       </c>
       <c r="D2567">
         <f t="shared" si="56"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2568" spans="1:4" x14ac:dyDescent="0.35">
@@ -20565,23 +20564,23 @@
       </c>
       <c r="D2568">
         <f t="shared" si="56"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2569">
         <f t="shared" si="55"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2569">
         <f t="shared" si="56"/>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2570" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2570">
         <f t="shared" si="55"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2570">
         <f t="shared" si="56"/>
@@ -20591,21 +20590,21 @@
     <row r="2571" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2571">
         <f t="shared" si="55"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2571">
         <f t="shared" si="56"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2572">
         <f t="shared" si="55"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2572">
         <f t="shared" si="56"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2573" spans="1:4" x14ac:dyDescent="0.35">
@@ -20615,7 +20614,7 @@
       </c>
       <c r="D2573">
         <f t="shared" si="56"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2574" spans="1:4" x14ac:dyDescent="0.35">
@@ -20630,12 +20629,12 @@
     </row>
     <row r="2575" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2575">
-        <f t="shared" ref="B2575:B2638" si="57">SUM(A2575:A2658)</f>
+        <f t="shared" ref="B2575:B2638" si="57">SUM(A2575:A2660)</f>
         <v>13</v>
       </c>
       <c r="D2575">
         <f t="shared" si="56"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2576" spans="1:4" x14ac:dyDescent="0.35">
@@ -20648,7 +20647,7 @@
       </c>
       <c r="D2576">
         <f t="shared" si="56"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2577" spans="1:4" x14ac:dyDescent="0.35">
@@ -20658,7 +20657,7 @@
       </c>
       <c r="D2577">
         <f t="shared" si="56"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2578" spans="1:4" x14ac:dyDescent="0.35">
@@ -20717,7 +20716,7 @@
         <v>12</v>
       </c>
       <c r="D2583">
-        <f t="shared" ref="D2583:D2646" si="58">SUM(A2583:A2749)</f>
+        <f t="shared" ref="D2583:D2646" si="58">SUM(A2583:A2752)</f>
         <v>37</v>
       </c>
     </row>
@@ -20761,7 +20760,7 @@
       </c>
       <c r="D2587">
         <f t="shared" si="58"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2588" spans="1:4" x14ac:dyDescent="0.35">
@@ -20771,7 +20770,7 @@
       </c>
       <c r="D2588">
         <f t="shared" si="58"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2589" spans="1:4" x14ac:dyDescent="0.35">
@@ -20781,7 +20780,7 @@
       </c>
       <c r="D2589">
         <f t="shared" si="58"/>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2590" spans="1:4" x14ac:dyDescent="0.35">
@@ -20791,43 +20790,43 @@
       </c>
       <c r="D2590">
         <f t="shared" si="58"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2591" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2591">
         <f t="shared" si="57"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2591">
         <f t="shared" si="58"/>
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2592" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2592">
         <f t="shared" si="57"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2592">
         <f t="shared" si="58"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2593" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2593">
         <f t="shared" si="57"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2593">
         <f t="shared" si="58"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2594" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2594">
         <f t="shared" si="57"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2594">
         <f t="shared" si="58"/>
@@ -20837,7 +20836,7 @@
     <row r="2595" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2595">
         <f t="shared" si="57"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2595">
         <f t="shared" si="58"/>
@@ -20850,7 +20849,7 @@
       </c>
       <c r="B2596">
         <f t="shared" si="57"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2596">
         <f t="shared" si="58"/>
@@ -20860,7 +20859,7 @@
     <row r="2597" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2597">
         <f t="shared" si="57"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2597">
         <f t="shared" si="58"/>
@@ -20870,7 +20869,7 @@
     <row r="2598" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2598">
         <f t="shared" si="57"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2598">
         <f t="shared" si="58"/>
@@ -20880,37 +20879,37 @@
     <row r="2599" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2599">
         <f t="shared" si="57"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2599">
         <f t="shared" si="58"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2600" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2600">
         <f t="shared" si="57"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2600">
         <f t="shared" si="58"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2601" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2601">
         <f t="shared" si="57"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2601">
         <f t="shared" si="58"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2602" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2602">
         <f t="shared" si="57"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2602">
         <f t="shared" si="58"/>
@@ -20920,7 +20919,7 @@
     <row r="2603" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2603">
         <f t="shared" si="57"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2603">
         <f t="shared" si="58"/>
@@ -20930,7 +20929,7 @@
     <row r="2604" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2604">
         <f t="shared" si="57"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2604">
         <f t="shared" si="58"/>
@@ -20940,7 +20939,7 @@
     <row r="2605" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2605">
         <f t="shared" si="57"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2605">
         <f t="shared" si="58"/>
@@ -20950,7 +20949,7 @@
     <row r="2606" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2606">
         <f t="shared" si="57"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2606">
         <f t="shared" si="58"/>
@@ -20960,11 +20959,11 @@
     <row r="2607" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2607">
         <f t="shared" si="57"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2607">
         <f t="shared" si="58"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2608" spans="1:4" x14ac:dyDescent="0.35">
@@ -20973,27 +20972,27 @@
       </c>
       <c r="B2608">
         <f t="shared" si="57"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2608">
         <f t="shared" si="58"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2609" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2609">
         <f t="shared" si="57"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2609">
         <f t="shared" si="58"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2610" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2610">
         <f t="shared" si="57"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2610">
         <f t="shared" si="58"/>
@@ -21003,37 +21002,37 @@
     <row r="2611" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2611">
         <f t="shared" si="57"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2611">
         <f t="shared" si="58"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2612" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2612">
         <f t="shared" si="57"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2612">
         <f t="shared" si="58"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2613" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2613">
         <f t="shared" si="57"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2613">
         <f t="shared" si="58"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2614" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2614">
         <f t="shared" si="57"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2614">
         <f t="shared" si="58"/>
@@ -21043,11 +21042,11 @@
     <row r="2615" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2615">
         <f t="shared" si="57"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2615">
         <f t="shared" si="58"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2616" spans="1:4" x14ac:dyDescent="0.35">
@@ -21056,27 +21055,27 @@
       </c>
       <c r="B2616">
         <f t="shared" si="57"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2616">
         <f t="shared" si="58"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2617" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2617">
         <f t="shared" si="57"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2617">
         <f t="shared" si="58"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2618" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2618">
         <f t="shared" si="57"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2618">
         <f t="shared" si="58"/>
@@ -21086,37 +21085,37 @@
     <row r="2619" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2619">
         <f t="shared" si="57"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2619">
         <f t="shared" si="58"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2620" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2620">
         <f t="shared" si="57"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2620">
         <f t="shared" si="58"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2621" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2621">
         <f t="shared" si="57"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2621">
         <f t="shared" si="58"/>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2622" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2622">
         <f t="shared" si="57"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2622">
         <f t="shared" si="58"/>
@@ -21126,37 +21125,37 @@
     <row r="2623" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2623">
         <f t="shared" si="57"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2623">
         <f t="shared" si="58"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2624" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2624">
         <f t="shared" si="57"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2624">
         <f t="shared" si="58"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2625" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2625">
         <f t="shared" si="57"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2625">
         <f t="shared" si="58"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2626" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2626">
         <f t="shared" si="57"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2626">
         <f t="shared" si="58"/>
@@ -21166,11 +21165,11 @@
     <row r="2627" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2627">
         <f t="shared" si="57"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2627">
         <f t="shared" si="58"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2628" spans="1:4" x14ac:dyDescent="0.35">
@@ -21179,11 +21178,11 @@
       </c>
       <c r="B2628">
         <f t="shared" si="57"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2628">
         <f t="shared" si="58"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2629" spans="1:4" x14ac:dyDescent="0.35">
@@ -21193,7 +21192,7 @@
       </c>
       <c r="D2629">
         <f t="shared" si="58"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2630" spans="1:4" x14ac:dyDescent="0.35">
@@ -21213,7 +21212,7 @@
       </c>
       <c r="D2631">
         <f t="shared" si="58"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2632" spans="1:4" x14ac:dyDescent="0.35">
@@ -21223,7 +21222,7 @@
       </c>
       <c r="D2632">
         <f t="shared" si="58"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2633" spans="1:4" x14ac:dyDescent="0.35">
@@ -21233,7 +21232,7 @@
       </c>
       <c r="D2633">
         <f t="shared" si="58"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2634" spans="1:4" x14ac:dyDescent="0.35">
@@ -21253,7 +21252,7 @@
       </c>
       <c r="D2635">
         <f t="shared" si="58"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2636" spans="1:4" x14ac:dyDescent="0.35">
@@ -21263,7 +21262,7 @@
       </c>
       <c r="D2636">
         <f t="shared" si="58"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2637" spans="1:4" x14ac:dyDescent="0.35">
@@ -21273,7 +21272,7 @@
       </c>
       <c r="D2637">
         <f t="shared" si="58"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2638" spans="1:4" x14ac:dyDescent="0.35">
@@ -21288,12 +21287,12 @@
     </row>
     <row r="2639" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2639">
-        <f t="shared" ref="B2639:B2702" si="59">SUM(A2639:A2722)</f>
-        <v>23</v>
+        <f t="shared" ref="B2639:B2702" si="59">SUM(A2639:A2724)</f>
+        <v>24</v>
       </c>
       <c r="D2639">
         <f t="shared" si="58"/>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2640" spans="1:4" x14ac:dyDescent="0.35">
@@ -21302,51 +21301,51 @@
       </c>
       <c r="B2640">
         <f t="shared" si="59"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2640">
         <f t="shared" si="58"/>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2641" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2641">
         <f t="shared" si="59"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2641">
         <f t="shared" si="58"/>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2642" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2642">
         <f t="shared" si="59"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2642">
         <f t="shared" si="58"/>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2643" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2643">
         <f t="shared" si="59"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2643">
         <f t="shared" si="58"/>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2644" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2644">
         <f t="shared" si="59"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2644">
         <f t="shared" si="58"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2645" spans="1:4" x14ac:dyDescent="0.35">
@@ -21356,7 +21355,7 @@
       </c>
       <c r="D2645">
         <f t="shared" si="58"/>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2646" spans="1:4" x14ac:dyDescent="0.35">
@@ -21366,7 +21365,7 @@
       </c>
       <c r="D2646">
         <f t="shared" si="58"/>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2647" spans="1:4" x14ac:dyDescent="0.35">
@@ -21375,8 +21374,8 @@
         <v>25</v>
       </c>
       <c r="D2647">
-        <f t="shared" ref="D2647:D2675" si="60">SUM(A2647:A2813)</f>
-        <v>43</v>
+        <f t="shared" ref="D2647:D2676" si="60">SUM(A2647:A2816)</f>
+        <v>46</v>
       </c>
     </row>
     <row r="2648" spans="1:4" x14ac:dyDescent="0.35">
@@ -21389,7 +21388,7 @@
       </c>
       <c r="D2648">
         <f t="shared" si="60"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2649" spans="1:4" x14ac:dyDescent="0.35">
@@ -21399,7 +21398,7 @@
       </c>
       <c r="D2649">
         <f t="shared" si="60"/>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2650" spans="1:4" x14ac:dyDescent="0.35">
@@ -21409,27 +21408,27 @@
       </c>
       <c r="D2650">
         <f t="shared" si="60"/>
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2651" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2651">
         <f t="shared" si="59"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2651">
         <f t="shared" si="60"/>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2652" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2652">
         <f t="shared" si="59"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2652">
         <f t="shared" si="60"/>
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2653" spans="1:4" x14ac:dyDescent="0.35">
@@ -21439,7 +21438,7 @@
       </c>
       <c r="D2653">
         <f t="shared" si="60"/>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2654" spans="1:4" x14ac:dyDescent="0.35">
@@ -21452,17 +21451,17 @@
       </c>
       <c r="D2654">
         <f t="shared" si="60"/>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2655" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2655">
         <f t="shared" si="59"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2655">
         <f t="shared" si="60"/>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2656" spans="1:4" x14ac:dyDescent="0.35">
@@ -21471,11 +21470,11 @@
       </c>
       <c r="B2656">
         <f t="shared" si="59"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2656">
         <f t="shared" si="60"/>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2657" spans="2:4" x14ac:dyDescent="0.35">
@@ -21485,7 +21484,7 @@
       </c>
       <c r="D2657">
         <f t="shared" si="60"/>
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2658" spans="2:4" x14ac:dyDescent="0.35">
@@ -21495,27 +21494,27 @@
       </c>
       <c r="D2658">
         <f t="shared" si="60"/>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2659" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2659">
         <f t="shared" si="59"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2659">
         <f t="shared" si="60"/>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2660" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2660">
         <f t="shared" si="59"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2660">
         <f t="shared" si="60"/>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2661" spans="2:4" x14ac:dyDescent="0.35">
@@ -21525,7 +21524,7 @@
       </c>
       <c r="D2661">
         <f t="shared" si="60"/>
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2662" spans="2:4" x14ac:dyDescent="0.35">
@@ -21535,7 +21534,7 @@
       </c>
       <c r="D2662">
         <f t="shared" si="60"/>
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2663" spans="2:4" x14ac:dyDescent="0.35">
@@ -21545,7 +21544,7 @@
       </c>
       <c r="D2663">
         <f t="shared" si="60"/>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2664" spans="2:4" x14ac:dyDescent="0.35">
@@ -21555,7 +21554,7 @@
       </c>
       <c r="D2664">
         <f t="shared" si="60"/>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2665" spans="2:4" x14ac:dyDescent="0.35">
@@ -21565,7 +21564,7 @@
       </c>
       <c r="D2665">
         <f t="shared" si="60"/>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2666" spans="2:4" x14ac:dyDescent="0.35">
@@ -21621,37 +21620,37 @@
     <row r="2671" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2671">
         <f t="shared" si="59"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2671">
         <f t="shared" si="60"/>
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2672" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2672">
         <f t="shared" si="59"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2672">
         <f t="shared" si="60"/>
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2673" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2673">
         <f t="shared" si="59"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2673">
         <f t="shared" si="60"/>
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2674" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B2674">
+      <c r="B2674" s="4">
         <f t="shared" si="59"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2674">
         <f t="shared" si="60"/>
@@ -21661,24 +21660,16 @@
     <row r="2675" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2675">
         <f t="shared" si="59"/>
-        <v>27</v>
-      </c>
-      <c r="D2675">
-        <f t="shared" si="60"/>
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2676" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2676">
         <v>1</v>
       </c>
-      <c r="B2676" s="4">
+      <c r="B2676">
         <f t="shared" si="59"/>
-        <v>27</v>
-      </c>
-      <c r="D2676">
-        <f>SUM(A2676:A2842)</f>
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2677" spans="1:4" x14ac:dyDescent="0.35">
@@ -21729,7 +21720,7 @@
     <row r="2683" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B2683">
         <f t="shared" si="59"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2684" spans="1:4" x14ac:dyDescent="0.35">
@@ -21738,7 +21729,7 @@
       </c>
       <c r="B2684">
         <f t="shared" si="59"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2685" spans="1:4" x14ac:dyDescent="0.35">
@@ -21789,7 +21780,7 @@
     <row r="2691" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2691">
         <f t="shared" si="59"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2692" spans="1:2" x14ac:dyDescent="0.35">
@@ -21798,7 +21789,7 @@
       </c>
       <c r="B2692">
         <f t="shared" si="59"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2693" spans="1:2" x14ac:dyDescent="0.35">
@@ -21819,7 +21810,7 @@
     <row r="2695" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2695">
         <f t="shared" si="59"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2696" spans="1:2" x14ac:dyDescent="0.35">
@@ -21828,7 +21819,7 @@
       </c>
       <c r="B2696">
         <f t="shared" si="59"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2697" spans="1:2" x14ac:dyDescent="0.35">
@@ -21849,7 +21840,7 @@
     <row r="2699" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2699">
         <f t="shared" si="59"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2700" spans="1:2" x14ac:dyDescent="0.35">
@@ -21858,7 +21849,7 @@
       </c>
       <c r="B2700">
         <f t="shared" si="59"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2701" spans="1:2" x14ac:dyDescent="0.35">
@@ -21878,8 +21869,8 @@
     </row>
     <row r="2703" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2703">
-        <f t="shared" ref="B2703:B2756" si="61">SUM(A2703:A2786)</f>
-        <v>18</v>
+        <f t="shared" ref="B2703:B2758" si="61">SUM(A2703:A2788)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="2704" spans="1:2" x14ac:dyDescent="0.35">
@@ -21888,7 +21879,7 @@
       </c>
       <c r="B2704">
         <f t="shared" si="61"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2705" spans="1:2" x14ac:dyDescent="0.35">
@@ -21909,7 +21900,7 @@
     <row r="2707" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2707">
         <f t="shared" si="61"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2708" spans="1:2" x14ac:dyDescent="0.35">
@@ -21918,7 +21909,7 @@
       </c>
       <c r="B2708">
         <f t="shared" si="61"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2709" spans="1:2" x14ac:dyDescent="0.35">
@@ -21939,7 +21930,7 @@
     <row r="2711" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2711">
         <f t="shared" si="61"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2712" spans="1:2" x14ac:dyDescent="0.35">
@@ -21948,7 +21939,7 @@
       </c>
       <c r="B2712">
         <f t="shared" si="61"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2713" spans="1:2" x14ac:dyDescent="0.35">
@@ -21966,13 +21957,13 @@
     <row r="2715" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2715">
         <f t="shared" si="61"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2716" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2716">
         <f t="shared" si="61"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2717" spans="1:2" x14ac:dyDescent="0.35">
@@ -21990,13 +21981,13 @@
     <row r="2719" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2719">
         <f t="shared" si="61"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2720" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2720">
         <f t="shared" si="61"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2721" spans="1:2" x14ac:dyDescent="0.35">
@@ -22014,7 +22005,7 @@
     <row r="2723" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2723">
         <f t="shared" si="61"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2724" spans="1:2" x14ac:dyDescent="0.35">
@@ -22023,13 +22014,13 @@
       </c>
       <c r="B2724">
         <f t="shared" si="61"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2725" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2725">
         <f t="shared" si="61"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2726" spans="1:2" x14ac:dyDescent="0.35">
@@ -22038,13 +22029,13 @@
       </c>
       <c r="B2726">
         <f t="shared" si="61"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2727" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2727">
         <f t="shared" si="61"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2728" spans="1:2" x14ac:dyDescent="0.35">
@@ -22053,49 +22044,49 @@
       </c>
       <c r="B2728">
         <f t="shared" si="61"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2729" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2729">
         <f t="shared" si="61"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2730" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2730">
         <f t="shared" si="61"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2731" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2731">
         <f t="shared" si="61"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2732" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2732">
         <f t="shared" si="61"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2733" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2733">
         <f t="shared" si="61"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2734" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2734">
         <f t="shared" si="61"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2735" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2735">
         <f t="shared" si="61"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2736" spans="1:2" x14ac:dyDescent="0.35">
@@ -22104,25 +22095,25 @@
       </c>
       <c r="B2736">
         <f t="shared" si="61"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2737" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2737">
         <f t="shared" si="61"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2738" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2738">
         <f t="shared" si="61"/>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2739" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2739">
         <f t="shared" si="61"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2740" spans="1:2" x14ac:dyDescent="0.35">
@@ -22131,25 +22122,25 @@
       </c>
       <c r="B2740">
         <f t="shared" si="61"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2741" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2741">
         <f t="shared" si="61"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2742" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2742">
         <f t="shared" si="61"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2743" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2743">
         <f t="shared" si="61"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2744" spans="1:2" x14ac:dyDescent="0.35">
@@ -22158,31 +22149,31 @@
       </c>
       <c r="B2744">
         <f t="shared" si="61"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2745" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2745">
         <f t="shared" si="61"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2746" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2746">
         <f t="shared" si="61"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2747" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2747">
         <f t="shared" si="61"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2748" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2748">
         <f t="shared" si="61"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2749" spans="1:2" x14ac:dyDescent="0.35">
@@ -22224,7 +22215,7 @@
     <row r="2755" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2755">
         <f t="shared" si="61"/>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2756" spans="1:2" x14ac:dyDescent="0.35">
@@ -22233,22 +22224,12 @@
       </c>
       <c r="B2756">
         <f t="shared" si="61"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2757" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2757">
-        <f>SUM(A2757:A2840)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2758" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2758">
         <v>1</v>
-      </c>
-      <c r="B2758" s="3">
-        <f>SUM(A2758:A2841)</f>
-        <v>29</v>
       </c>
     </row>
     <row r="2760" spans="1:2" x14ac:dyDescent="0.35">
